--- a/projects/mogiData/MogiData.xlsx
+++ b/projects/mogiData/MogiData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeldi\Desktop\UNI\Code\gitCode\MogiData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeldi\Desktop\UNI\Code\WebPortfolio\projects\mogiData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882D5D70-CB89-4AC5-A23E-591F3DDB1C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74344C77-BE44-4CF9-8D85-4D4D3044344F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{BDC4AD27-0A95-4AAB-A809-85FB1C2C1D7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BDC4AD27-0A95-4AAB-A809-85FB1C2C1D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="RunningTotals" sheetId="1" r:id="rId1"/>
@@ -607,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9597BB98-F4BC-4F46-B7BA-AB647A906BAD}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="111" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="111" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,6 +2182,1412 @@
         <v>77</v>
       </c>
     </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="13">
+        <v>1</v>
+      </c>
+      <c r="C42" s="13">
+        <v>8</v>
+      </c>
+      <c r="D42" s="13">
+        <v>10</v>
+      </c>
+      <c r="E42" s="13">
+        <v>22</v>
+      </c>
+      <c r="F42" s="13">
+        <v>32</v>
+      </c>
+      <c r="G42" s="13">
+        <v>41</v>
+      </c>
+      <c r="H42" s="13">
+        <v>48</v>
+      </c>
+      <c r="I42" s="13">
+        <v>58</v>
+      </c>
+      <c r="J42" s="13">
+        <v>63</v>
+      </c>
+      <c r="K42" s="13">
+        <v>73</v>
+      </c>
+      <c r="L42" s="13">
+        <v>79</v>
+      </c>
+      <c r="M42" s="14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="13">
+        <v>8</v>
+      </c>
+      <c r="C43" s="13">
+        <v>11</v>
+      </c>
+      <c r="D43" s="13">
+        <v>26</v>
+      </c>
+      <c r="E43" s="13">
+        <v>34</v>
+      </c>
+      <c r="F43" s="13">
+        <v>36</v>
+      </c>
+      <c r="G43" s="13">
+        <v>48</v>
+      </c>
+      <c r="H43" s="13">
+        <v>63</v>
+      </c>
+      <c r="I43" s="13">
+        <v>67</v>
+      </c>
+      <c r="J43" s="13">
+        <v>74</v>
+      </c>
+      <c r="K43" s="13">
+        <v>89</v>
+      </c>
+      <c r="L43" s="13">
+        <v>96</v>
+      </c>
+      <c r="M43" s="14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="13">
+        <v>15</v>
+      </c>
+      <c r="C44" s="13">
+        <v>30</v>
+      </c>
+      <c r="D44" s="13">
+        <v>35</v>
+      </c>
+      <c r="E44" s="13">
+        <v>36</v>
+      </c>
+      <c r="F44" s="13">
+        <v>45</v>
+      </c>
+      <c r="G44" s="13">
+        <v>46</v>
+      </c>
+      <c r="H44" s="13">
+        <v>49</v>
+      </c>
+      <c r="I44" s="13">
+        <v>52</v>
+      </c>
+      <c r="J44" s="13">
+        <v>62</v>
+      </c>
+      <c r="K44" s="13">
+        <v>66</v>
+      </c>
+      <c r="L44" s="13">
+        <v>74</v>
+      </c>
+      <c r="M44" s="14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="13">
+        <v>9</v>
+      </c>
+      <c r="C45" s="13">
+        <v>11</v>
+      </c>
+      <c r="D45" s="13">
+        <v>13</v>
+      </c>
+      <c r="E45" s="13">
+        <v>17</v>
+      </c>
+      <c r="F45" s="13">
+        <v>29</v>
+      </c>
+      <c r="G45" s="13">
+        <v>33</v>
+      </c>
+      <c r="H45" s="13">
+        <v>37</v>
+      </c>
+      <c r="I45" s="13">
+        <v>39</v>
+      </c>
+      <c r="J45" s="13">
+        <v>43</v>
+      </c>
+      <c r="K45" s="13">
+        <v>45</v>
+      </c>
+      <c r="L45" s="13">
+        <v>48</v>
+      </c>
+      <c r="M45" s="14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="13">
+        <v>6</v>
+      </c>
+      <c r="C46" s="13">
+        <v>11</v>
+      </c>
+      <c r="D46" s="13">
+        <v>15</v>
+      </c>
+      <c r="E46" s="13">
+        <v>21</v>
+      </c>
+      <c r="F46" s="13">
+        <v>25</v>
+      </c>
+      <c r="G46" s="13">
+        <v>35</v>
+      </c>
+      <c r="H46" s="13">
+        <v>42</v>
+      </c>
+      <c r="I46" s="13">
+        <v>50</v>
+      </c>
+      <c r="J46" s="13">
+        <v>52</v>
+      </c>
+      <c r="K46" s="13">
+        <v>58</v>
+      </c>
+      <c r="L46" s="13">
+        <v>68</v>
+      </c>
+      <c r="M46" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="13">
+        <v>8</v>
+      </c>
+      <c r="C47" s="13">
+        <v>16</v>
+      </c>
+      <c r="D47" s="13">
+        <v>17</v>
+      </c>
+      <c r="E47" s="13">
+        <v>22</v>
+      </c>
+      <c r="F47" s="13">
+        <v>37</v>
+      </c>
+      <c r="G47" s="13">
+        <v>44</v>
+      </c>
+      <c r="H47" s="13">
+        <v>50</v>
+      </c>
+      <c r="I47" s="13">
+        <v>60</v>
+      </c>
+      <c r="J47" s="13">
+        <v>65</v>
+      </c>
+      <c r="K47" s="13">
+        <v>77</v>
+      </c>
+      <c r="L47" s="13">
+        <v>83</v>
+      </c>
+      <c r="M47" s="14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="13">
+        <v>1</v>
+      </c>
+      <c r="C48" s="13">
+        <v>11</v>
+      </c>
+      <c r="D48" s="13">
+        <v>14</v>
+      </c>
+      <c r="E48" s="13">
+        <v>20</v>
+      </c>
+      <c r="F48" s="13">
+        <v>27</v>
+      </c>
+      <c r="G48" s="13">
+        <v>39</v>
+      </c>
+      <c r="H48" s="13">
+        <v>51</v>
+      </c>
+      <c r="I48" s="13">
+        <v>59</v>
+      </c>
+      <c r="J48" s="13">
+        <v>71</v>
+      </c>
+      <c r="K48" s="13">
+        <v>81</v>
+      </c>
+      <c r="L48" s="13">
+        <v>84</v>
+      </c>
+      <c r="M48" s="14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="13">
+        <v>7</v>
+      </c>
+      <c r="C49" s="13">
+        <v>11</v>
+      </c>
+      <c r="D49" s="13">
+        <v>23</v>
+      </c>
+      <c r="E49" s="13">
+        <v>24</v>
+      </c>
+      <c r="F49" s="13">
+        <v>39</v>
+      </c>
+      <c r="G49" s="13">
+        <v>47</v>
+      </c>
+      <c r="H49" s="13">
+        <v>49</v>
+      </c>
+      <c r="I49" s="13">
+        <v>58</v>
+      </c>
+      <c r="J49" s="13">
+        <v>62</v>
+      </c>
+      <c r="K49" s="13">
+        <v>65</v>
+      </c>
+      <c r="L49" s="13">
+        <v>68</v>
+      </c>
+      <c r="M49" s="14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="13">
+        <v>9</v>
+      </c>
+      <c r="C50" s="13">
+        <v>11</v>
+      </c>
+      <c r="D50" s="13">
+        <v>23</v>
+      </c>
+      <c r="E50" s="13">
+        <v>33</v>
+      </c>
+      <c r="F50" s="13">
+        <v>40</v>
+      </c>
+      <c r="G50" s="13">
+        <v>47</v>
+      </c>
+      <c r="H50" s="13">
+        <v>57</v>
+      </c>
+      <c r="I50" s="13">
+        <v>63</v>
+      </c>
+      <c r="J50" s="13">
+        <v>73</v>
+      </c>
+      <c r="K50" s="13">
+        <v>74</v>
+      </c>
+      <c r="L50" s="13">
+        <v>75</v>
+      </c>
+      <c r="M50" s="14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="13">
+        <v>9</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24</v>
+      </c>
+      <c r="D51" s="13">
+        <v>36</v>
+      </c>
+      <c r="E51" s="13">
+        <v>48</v>
+      </c>
+      <c r="F51" s="13">
+        <v>58</v>
+      </c>
+      <c r="G51" s="13">
+        <v>62</v>
+      </c>
+      <c r="H51" s="13">
+        <v>71</v>
+      </c>
+      <c r="I51" s="13">
+        <v>74</v>
+      </c>
+      <c r="J51" s="13">
+        <v>83</v>
+      </c>
+      <c r="K51" s="13">
+        <v>92</v>
+      </c>
+      <c r="L51" s="13">
+        <v>93</v>
+      </c>
+      <c r="M51" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="13">
+        <v>10</v>
+      </c>
+      <c r="C52" s="13">
+        <v>11</v>
+      </c>
+      <c r="D52" s="13">
+        <v>23</v>
+      </c>
+      <c r="E52" s="13">
+        <v>38</v>
+      </c>
+      <c r="F52" s="13">
+        <v>42</v>
+      </c>
+      <c r="G52" s="13">
+        <v>44</v>
+      </c>
+      <c r="H52" s="13">
+        <v>59</v>
+      </c>
+      <c r="I52" s="13">
+        <v>67</v>
+      </c>
+      <c r="J52" s="13">
+        <v>77</v>
+      </c>
+      <c r="K52" s="13">
+        <v>82</v>
+      </c>
+      <c r="L52" s="13">
+        <v>91</v>
+      </c>
+      <c r="M52" s="14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="13">
+        <v>1</v>
+      </c>
+      <c r="C53" s="13">
+        <v>6</v>
+      </c>
+      <c r="D53" s="13">
+        <v>7</v>
+      </c>
+      <c r="E53" s="13">
+        <v>8</v>
+      </c>
+      <c r="F53" s="13">
+        <v>20</v>
+      </c>
+      <c r="G53" s="13">
+        <v>32</v>
+      </c>
+      <c r="H53" s="13">
+        <v>36</v>
+      </c>
+      <c r="I53" s="13">
+        <v>46</v>
+      </c>
+      <c r="J53" s="13">
+        <v>50</v>
+      </c>
+      <c r="K53" s="13">
+        <v>56</v>
+      </c>
+      <c r="L53" s="13">
+        <v>57</v>
+      </c>
+      <c r="M53" s="14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="13">
+        <v>12</v>
+      </c>
+      <c r="C54" s="13">
+        <v>19</v>
+      </c>
+      <c r="D54" s="13">
+        <v>22</v>
+      </c>
+      <c r="E54" s="13">
+        <v>31</v>
+      </c>
+      <c r="F54" s="13">
+        <v>32</v>
+      </c>
+      <c r="G54" s="13">
+        <v>35</v>
+      </c>
+      <c r="H54" s="13">
+        <v>44</v>
+      </c>
+      <c r="I54" s="13">
+        <v>54</v>
+      </c>
+      <c r="J54" s="13">
+        <v>63</v>
+      </c>
+      <c r="K54" s="13">
+        <v>65</v>
+      </c>
+      <c r="L54" s="13">
+        <v>68</v>
+      </c>
+      <c r="M54" s="14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="13">
+        <v>12</v>
+      </c>
+      <c r="C55" s="13">
+        <v>21</v>
+      </c>
+      <c r="D55" s="13">
+        <v>26</v>
+      </c>
+      <c r="E55" s="13">
+        <v>27</v>
+      </c>
+      <c r="F55" s="13">
+        <v>39</v>
+      </c>
+      <c r="G55" s="13">
+        <v>44</v>
+      </c>
+      <c r="H55" s="13">
+        <v>54</v>
+      </c>
+      <c r="I55" s="13">
+        <v>62</v>
+      </c>
+      <c r="J55" s="13">
+        <v>72</v>
+      </c>
+      <c r="K55" s="13">
+        <v>79</v>
+      </c>
+      <c r="L55" s="13">
+        <v>85</v>
+      </c>
+      <c r="M55" s="14">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="13">
+        <v>4</v>
+      </c>
+      <c r="C56" s="13">
+        <v>12</v>
+      </c>
+      <c r="D56" s="13">
+        <v>14</v>
+      </c>
+      <c r="E56" s="13">
+        <v>23</v>
+      </c>
+      <c r="F56" s="13">
+        <v>28</v>
+      </c>
+      <c r="G56" s="13">
+        <v>30</v>
+      </c>
+      <c r="H56" s="13">
+        <v>34</v>
+      </c>
+      <c r="I56" s="13">
+        <v>43</v>
+      </c>
+      <c r="J56" s="13">
+        <v>51</v>
+      </c>
+      <c r="K56" s="13">
+        <v>60</v>
+      </c>
+      <c r="L56" s="13">
+        <v>63</v>
+      </c>
+      <c r="M56" s="14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="13">
+        <v>9</v>
+      </c>
+      <c r="C57" s="13">
+        <v>14</v>
+      </c>
+      <c r="D57" s="13">
+        <v>22</v>
+      </c>
+      <c r="E57" s="13">
+        <v>25</v>
+      </c>
+      <c r="F57" s="13">
+        <v>31</v>
+      </c>
+      <c r="G57" s="13">
+        <v>41</v>
+      </c>
+      <c r="H57" s="13">
+        <v>49</v>
+      </c>
+      <c r="I57" s="13">
+        <v>51</v>
+      </c>
+      <c r="J57" s="13">
+        <v>56</v>
+      </c>
+      <c r="K57" s="13">
+        <v>58</v>
+      </c>
+      <c r="L57" s="13">
+        <v>65</v>
+      </c>
+      <c r="M57" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="13">
+        <v>4</v>
+      </c>
+      <c r="C58" s="13">
+        <v>16</v>
+      </c>
+      <c r="D58" s="13">
+        <v>17</v>
+      </c>
+      <c r="E58" s="13">
+        <v>32</v>
+      </c>
+      <c r="F58" s="13">
+        <v>47</v>
+      </c>
+      <c r="G58" s="13">
+        <v>55</v>
+      </c>
+      <c r="H58" s="13">
+        <v>65</v>
+      </c>
+      <c r="I58" s="13">
+        <v>71</v>
+      </c>
+      <c r="J58" s="13">
+        <v>79</v>
+      </c>
+      <c r="K58" s="13">
+        <v>89</v>
+      </c>
+      <c r="L58" s="13">
+        <v>104</v>
+      </c>
+      <c r="M58" s="14">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="13">
+        <v>5</v>
+      </c>
+      <c r="C59" s="13">
+        <v>13</v>
+      </c>
+      <c r="D59" s="13">
+        <v>28</v>
+      </c>
+      <c r="E59" s="13">
+        <v>36</v>
+      </c>
+      <c r="F59" s="13">
+        <v>51</v>
+      </c>
+      <c r="G59" s="13">
+        <v>55</v>
+      </c>
+      <c r="H59" s="13">
+        <v>58</v>
+      </c>
+      <c r="I59" s="13">
+        <v>64</v>
+      </c>
+      <c r="J59" s="13">
+        <v>66</v>
+      </c>
+      <c r="K59" s="13">
+        <v>70</v>
+      </c>
+      <c r="L59" s="13">
+        <v>77</v>
+      </c>
+      <c r="M59" s="14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="13">
+        <v>7</v>
+      </c>
+      <c r="C60" s="13">
+        <v>15</v>
+      </c>
+      <c r="D60" s="13">
+        <v>20</v>
+      </c>
+      <c r="E60" s="13">
+        <v>30</v>
+      </c>
+      <c r="F60" s="13">
+        <v>38</v>
+      </c>
+      <c r="G60" s="13">
+        <v>40</v>
+      </c>
+      <c r="H60" s="13">
+        <v>49</v>
+      </c>
+      <c r="I60" s="13">
+        <v>57</v>
+      </c>
+      <c r="J60" s="13">
+        <v>67</v>
+      </c>
+      <c r="K60" s="13">
+        <v>74</v>
+      </c>
+      <c r="L60" s="13">
+        <v>83</v>
+      </c>
+      <c r="M60" s="14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="13">
+        <v>15</v>
+      </c>
+      <c r="C61" s="13">
+        <v>24</v>
+      </c>
+      <c r="D61" s="13">
+        <v>30</v>
+      </c>
+      <c r="E61" s="13">
+        <v>40</v>
+      </c>
+      <c r="F61" s="13">
+        <v>50</v>
+      </c>
+      <c r="G61" s="13">
+        <v>65</v>
+      </c>
+      <c r="H61" s="13">
+        <v>67</v>
+      </c>
+      <c r="I61" s="13">
+        <v>68</v>
+      </c>
+      <c r="J61" s="13">
+        <v>73</v>
+      </c>
+      <c r="K61" s="13">
+        <v>88</v>
+      </c>
+      <c r="L61" s="13">
+        <v>97</v>
+      </c>
+      <c r="M61" s="14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="13">
+        <v>2</v>
+      </c>
+      <c r="C62" s="13">
+        <v>12</v>
+      </c>
+      <c r="D62" s="13">
+        <v>20</v>
+      </c>
+      <c r="E62" s="13">
+        <v>28</v>
+      </c>
+      <c r="F62" s="13">
+        <v>38</v>
+      </c>
+      <c r="G62" s="13">
+        <v>45</v>
+      </c>
+      <c r="H62" s="13">
+        <v>55</v>
+      </c>
+      <c r="I62" s="13">
+        <v>58</v>
+      </c>
+      <c r="J62" s="13">
+        <v>59</v>
+      </c>
+      <c r="K62" s="13">
+        <v>71</v>
+      </c>
+      <c r="L62" s="13">
+        <v>86</v>
+      </c>
+      <c r="M62" s="14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="13">
+        <v>8</v>
+      </c>
+      <c r="C63" s="13">
+        <v>16</v>
+      </c>
+      <c r="D63" s="13">
+        <v>22</v>
+      </c>
+      <c r="E63" s="13">
+        <v>30</v>
+      </c>
+      <c r="F63" s="13">
+        <v>42</v>
+      </c>
+      <c r="G63" s="13">
+        <v>52</v>
+      </c>
+      <c r="H63" s="13">
+        <v>67</v>
+      </c>
+      <c r="I63" s="13">
+        <v>74</v>
+      </c>
+      <c r="J63" s="13">
+        <v>82</v>
+      </c>
+      <c r="K63" s="13">
+        <v>84</v>
+      </c>
+      <c r="L63" s="13">
+        <v>99</v>
+      </c>
+      <c r="M63" s="14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="13">
+        <v>15</v>
+      </c>
+      <c r="C64" s="13">
+        <v>30</v>
+      </c>
+      <c r="D64" s="13">
+        <v>45</v>
+      </c>
+      <c r="E64" s="13">
+        <v>60</v>
+      </c>
+      <c r="F64" s="13">
+        <v>66</v>
+      </c>
+      <c r="G64" s="13">
+        <v>74</v>
+      </c>
+      <c r="H64" s="13">
+        <v>84</v>
+      </c>
+      <c r="I64" s="13">
+        <v>86</v>
+      </c>
+      <c r="J64" s="13">
+        <v>94</v>
+      </c>
+      <c r="K64" s="13">
+        <v>102</v>
+      </c>
+      <c r="L64" s="13">
+        <v>106</v>
+      </c>
+      <c r="M64" s="14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="13">
+        <v>1</v>
+      </c>
+      <c r="C65" s="13">
+        <v>2</v>
+      </c>
+      <c r="D65" s="13">
+        <v>11</v>
+      </c>
+      <c r="E65" s="13">
+        <v>17</v>
+      </c>
+      <c r="F65" s="13">
+        <v>27</v>
+      </c>
+      <c r="G65" s="13">
+        <v>28</v>
+      </c>
+      <c r="H65" s="13">
+        <v>40</v>
+      </c>
+      <c r="I65" s="13">
+        <v>44</v>
+      </c>
+      <c r="J65" s="13">
+        <v>56</v>
+      </c>
+      <c r="K65" s="13">
+        <v>71</v>
+      </c>
+      <c r="L65" s="13">
+        <v>83</v>
+      </c>
+      <c r="M65" s="14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="13">
+        <v>12</v>
+      </c>
+      <c r="C66" s="13">
+        <v>19</v>
+      </c>
+      <c r="D66" s="13">
+        <v>29</v>
+      </c>
+      <c r="E66" s="13">
+        <v>30</v>
+      </c>
+      <c r="F66" s="13">
+        <v>39</v>
+      </c>
+      <c r="G66" s="13">
+        <v>42</v>
+      </c>
+      <c r="H66" s="13">
+        <v>45</v>
+      </c>
+      <c r="I66" s="13">
+        <v>55</v>
+      </c>
+      <c r="J66" s="13">
+        <v>57</v>
+      </c>
+      <c r="K66" s="13">
+        <v>58</v>
+      </c>
+      <c r="L66" s="13">
+        <v>66</v>
+      </c>
+      <c r="M66" s="14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="13">
+        <v>15</v>
+      </c>
+      <c r="C67" s="13">
+        <v>23</v>
+      </c>
+      <c r="D67" s="13">
+        <v>35</v>
+      </c>
+      <c r="E67" s="13">
+        <v>38</v>
+      </c>
+      <c r="F67" s="13">
+        <v>43</v>
+      </c>
+      <c r="G67" s="13">
+        <v>45</v>
+      </c>
+      <c r="H67" s="13">
+        <v>51</v>
+      </c>
+      <c r="I67" s="13">
+        <v>60</v>
+      </c>
+      <c r="J67" s="13">
+        <v>68</v>
+      </c>
+      <c r="K67" s="13">
+        <v>76</v>
+      </c>
+      <c r="L67" s="13">
+        <v>86</v>
+      </c>
+      <c r="M67" s="14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="13">
+        <v>12</v>
+      </c>
+      <c r="C68" s="13">
+        <v>17</v>
+      </c>
+      <c r="D68" s="13">
+        <v>19</v>
+      </c>
+      <c r="E68" s="13">
+        <v>23</v>
+      </c>
+      <c r="F68" s="13">
+        <v>28</v>
+      </c>
+      <c r="G68" s="13">
+        <v>37</v>
+      </c>
+      <c r="H68" s="13">
+        <v>44</v>
+      </c>
+      <c r="I68" s="13">
+        <v>50</v>
+      </c>
+      <c r="J68" s="13">
+        <v>55</v>
+      </c>
+      <c r="K68" s="13">
+        <v>65</v>
+      </c>
+      <c r="L68" s="13">
+        <v>69</v>
+      </c>
+      <c r="M68" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="13">
+        <v>3</v>
+      </c>
+      <c r="C69" s="13">
+        <v>8</v>
+      </c>
+      <c r="D69" s="13">
+        <v>20</v>
+      </c>
+      <c r="E69" s="13">
+        <v>29</v>
+      </c>
+      <c r="F69" s="13">
+        <v>39</v>
+      </c>
+      <c r="G69" s="13">
+        <v>40</v>
+      </c>
+      <c r="H69" s="13">
+        <v>42</v>
+      </c>
+      <c r="I69" s="13">
+        <v>43</v>
+      </c>
+      <c r="J69" s="13">
+        <v>46</v>
+      </c>
+      <c r="K69" s="13">
+        <v>61</v>
+      </c>
+      <c r="L69" s="13">
+        <v>66</v>
+      </c>
+      <c r="M69" s="14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="13">
+        <v>3</v>
+      </c>
+      <c r="C70" s="13">
+        <v>12</v>
+      </c>
+      <c r="D70" s="13">
+        <v>16</v>
+      </c>
+      <c r="E70" s="13">
+        <v>25</v>
+      </c>
+      <c r="F70" s="13">
+        <v>29</v>
+      </c>
+      <c r="G70" s="13">
+        <v>35</v>
+      </c>
+      <c r="H70" s="13">
+        <v>45</v>
+      </c>
+      <c r="I70" s="13">
+        <v>57</v>
+      </c>
+      <c r="J70" s="13">
+        <v>69</v>
+      </c>
+      <c r="K70" s="13">
+        <v>81</v>
+      </c>
+      <c r="L70" s="13">
+        <v>86</v>
+      </c>
+      <c r="M70" s="14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="13">
+        <v>12</v>
+      </c>
+      <c r="C71" s="13">
+        <v>21</v>
+      </c>
+      <c r="D71" s="13">
+        <v>30</v>
+      </c>
+      <c r="E71" s="13">
+        <v>31</v>
+      </c>
+      <c r="F71" s="13">
+        <v>33</v>
+      </c>
+      <c r="G71" s="13">
+        <v>39</v>
+      </c>
+      <c r="H71" s="13">
+        <v>48</v>
+      </c>
+      <c r="I71" s="13">
+        <v>54</v>
+      </c>
+      <c r="J71" s="13">
+        <v>66</v>
+      </c>
+      <c r="K71" s="13">
+        <v>69</v>
+      </c>
+      <c r="L71" s="13">
+        <v>79</v>
+      </c>
+      <c r="M71" s="14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="13">
+        <v>7</v>
+      </c>
+      <c r="C72" s="13">
+        <v>11</v>
+      </c>
+      <c r="D72" s="13">
+        <v>16</v>
+      </c>
+      <c r="E72" s="13">
+        <v>26</v>
+      </c>
+      <c r="F72" s="13">
+        <v>32</v>
+      </c>
+      <c r="G72" s="13">
+        <v>44</v>
+      </c>
+      <c r="H72" s="13">
+        <v>46</v>
+      </c>
+      <c r="I72" s="13">
+        <v>48</v>
+      </c>
+      <c r="J72" s="13">
+        <v>60</v>
+      </c>
+      <c r="K72" s="13">
+        <v>67</v>
+      </c>
+      <c r="L72" s="13">
+        <v>75</v>
+      </c>
+      <c r="M72" s="14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="13">
+        <v>10</v>
+      </c>
+      <c r="C73" s="13">
+        <v>22</v>
+      </c>
+      <c r="D73" s="13">
+        <v>27</v>
+      </c>
+      <c r="E73" s="13">
+        <v>36</v>
+      </c>
+      <c r="F73" s="13">
+        <v>37</v>
+      </c>
+      <c r="G73" s="13">
+        <v>40</v>
+      </c>
+      <c r="H73" s="13">
+        <v>43</v>
+      </c>
+      <c r="I73" s="13">
+        <v>55</v>
+      </c>
+      <c r="J73" s="13">
+        <v>70</v>
+      </c>
+      <c r="K73" s="13">
+        <v>80</v>
+      </c>
+      <c r="L73" s="13">
+        <v>88</v>
+      </c>
+      <c r="M73" s="14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="13">
+        <v>9</v>
+      </c>
+      <c r="C74" s="13">
+        <v>14</v>
+      </c>
+      <c r="D74" s="13">
+        <v>22</v>
+      </c>
+      <c r="E74" s="13">
+        <v>30</v>
+      </c>
+      <c r="F74" s="13">
+        <v>35</v>
+      </c>
+      <c r="G74" s="13">
+        <v>40</v>
+      </c>
+      <c r="H74" s="13">
+        <v>49</v>
+      </c>
+      <c r="I74" s="13">
+        <v>61</v>
+      </c>
+      <c r="J74" s="13">
+        <v>69</v>
+      </c>
+      <c r="K74" s="13">
+        <v>78</v>
+      </c>
+      <c r="L74" s="13">
+        <v>84</v>
+      </c>
+      <c r="M74" s="14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="13">
+        <v>15</v>
+      </c>
+      <c r="C75" s="13">
+        <v>17</v>
+      </c>
+      <c r="D75" s="13">
+        <v>23</v>
+      </c>
+      <c r="E75" s="13">
+        <v>27</v>
+      </c>
+      <c r="F75" s="13">
+        <v>42</v>
+      </c>
+      <c r="G75" s="13">
+        <v>57</v>
+      </c>
+      <c r="H75" s="13">
+        <v>72</v>
+      </c>
+      <c r="I75" s="13">
+        <v>78</v>
+      </c>
+      <c r="J75" s="13">
+        <v>81</v>
+      </c>
+      <c r="K75" s="13">
+        <v>91</v>
+      </c>
+      <c r="L75" s="13">
+        <v>94</v>
+      </c>
+      <c r="M75" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="13">
+        <v>10</v>
+      </c>
+      <c r="C76" s="13">
+        <v>22</v>
+      </c>
+      <c r="D76" s="13">
+        <v>37</v>
+      </c>
+      <c r="E76" s="13">
+        <v>47</v>
+      </c>
+      <c r="F76" s="13">
+        <v>55</v>
+      </c>
+      <c r="G76" s="13">
+        <v>64</v>
+      </c>
+      <c r="H76" s="13">
+        <v>72</v>
+      </c>
+      <c r="I76" s="13">
+        <v>74</v>
+      </c>
+      <c r="J76" s="13">
+        <v>89</v>
+      </c>
+      <c r="K76" s="13">
+        <v>94</v>
+      </c>
+      <c r="L76" s="13">
+        <v>103</v>
+      </c>
+      <c r="M76" s="14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="13">
+        <v>2</v>
+      </c>
+      <c r="C77" s="13">
+        <v>17</v>
+      </c>
+      <c r="D77" s="13">
+        <v>27</v>
+      </c>
+      <c r="E77" s="13">
+        <v>42</v>
+      </c>
+      <c r="F77" s="13">
+        <v>48</v>
+      </c>
+      <c r="G77" s="13">
+        <v>52</v>
+      </c>
+      <c r="H77" s="13">
+        <v>57</v>
+      </c>
+      <c r="I77" s="13">
+        <v>63</v>
+      </c>
+      <c r="J77" s="13">
+        <v>70</v>
+      </c>
+      <c r="K77" s="13">
+        <v>74</v>
+      </c>
+      <c r="L77" s="13">
+        <v>84</v>
+      </c>
+      <c r="M77" s="14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="13">
+        <v>3</v>
+      </c>
+      <c r="C78" s="13">
+        <v>8</v>
+      </c>
+      <c r="D78" s="13">
+        <v>10</v>
+      </c>
+      <c r="E78" s="13">
+        <v>19</v>
+      </c>
+      <c r="F78" s="13">
+        <v>23</v>
+      </c>
+      <c r="G78" s="13">
+        <v>33</v>
+      </c>
+      <c r="H78" s="13">
+        <v>37</v>
+      </c>
+      <c r="I78" s="13">
+        <v>41</v>
+      </c>
+      <c r="J78" s="13">
+        <v>42</v>
+      </c>
+      <c r="K78" s="13">
+        <v>43</v>
+      </c>
+      <c r="L78" s="13">
+        <v>48</v>
+      </c>
+      <c r="M78" s="14">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2191,7 +3597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BDB125-30B3-484D-B3F3-263CDA5CE880}">
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="121" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="121" workbookViewId="0">
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
@@ -4247,1851 +5653,1851 @@
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <f>RunningTotals!B42-RunningTotals!A42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="13">
         <f>RunningTotals!C42-RunningTotals!B42</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D42" s="13">
         <f>RunningTotals!D42-RunningTotals!C42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42" s="13">
         <f>RunningTotals!E42-RunningTotals!D42</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F42" s="13">
         <f>RunningTotals!F42-RunningTotals!E42</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G42" s="13">
         <f>RunningTotals!G42-RunningTotals!F42</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H42" s="13">
         <f>RunningTotals!H42-RunningTotals!G42</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I42" s="13">
         <f>RunningTotals!I42-RunningTotals!H42</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J42" s="13">
         <f>RunningTotals!J42-RunningTotals!I42</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K42" s="13">
         <f>RunningTotals!K42-RunningTotals!J42</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L42" s="13">
         <f>RunningTotals!L42-RunningTotals!K42</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M42" s="14">
         <f>RunningTotals!M42-RunningTotals!L42</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <f>RunningTotals!B43-RunningTotals!A43</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C43" s="13">
         <f>RunningTotals!C43-RunningTotals!B43</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D43" s="13">
         <f>RunningTotals!D43-RunningTotals!C43</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E43" s="13">
         <f>RunningTotals!E43-RunningTotals!D43</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F43" s="13">
         <f>RunningTotals!F43-RunningTotals!E43</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43" s="13">
         <f>RunningTotals!G43-RunningTotals!F43</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H43" s="13">
         <f>RunningTotals!H43-RunningTotals!G43</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I43" s="13">
         <f>RunningTotals!I43-RunningTotals!H43</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" s="13">
         <f>RunningTotals!J43-RunningTotals!I43</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K43" s="13">
         <f>RunningTotals!K43-RunningTotals!J43</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L43" s="13">
         <f>RunningTotals!L43-RunningTotals!K43</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M43" s="14">
         <f>RunningTotals!M43-RunningTotals!L43</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <f>RunningTotals!B44-RunningTotals!A44</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C44" s="13">
         <f>RunningTotals!C44-RunningTotals!B44</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D44" s="13">
         <f>RunningTotals!D44-RunningTotals!C44</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E44" s="13">
         <f>RunningTotals!E44-RunningTotals!D44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="13">
         <f>RunningTotals!F44-RunningTotals!E44</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G44" s="13">
         <f>RunningTotals!G44-RunningTotals!F44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="13">
         <f>RunningTotals!H44-RunningTotals!G44</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44" s="13">
         <f>RunningTotals!I44-RunningTotals!H44</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" s="13">
         <f>RunningTotals!J44-RunningTotals!I44</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K44" s="13">
         <f>RunningTotals!K44-RunningTotals!J44</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L44" s="13">
         <f>RunningTotals!L44-RunningTotals!K44</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M44" s="14">
         <f>RunningTotals!M44-RunningTotals!L44</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <f>RunningTotals!B45-RunningTotals!A45</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C45" s="13">
         <f>RunningTotals!C45-RunningTotals!B45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" s="13">
         <f>RunningTotals!D45-RunningTotals!C45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="13">
         <f>RunningTotals!E45-RunningTotals!D45</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F45" s="13">
         <f>RunningTotals!F45-RunningTotals!E45</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G45" s="13">
         <f>RunningTotals!G45-RunningTotals!F45</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H45" s="13">
         <f>RunningTotals!H45-RunningTotals!G45</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45" s="13">
         <f>RunningTotals!I45-RunningTotals!H45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" s="13">
         <f>RunningTotals!J45-RunningTotals!I45</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K45" s="13">
         <f>RunningTotals!K45-RunningTotals!J45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45" s="13">
         <f>RunningTotals!L45-RunningTotals!K45</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M45" s="14">
         <f>RunningTotals!M45-RunningTotals!L45</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <f>RunningTotals!B46-RunningTotals!A46</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C46" s="13">
         <f>RunningTotals!C46-RunningTotals!B46</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D46" s="13">
         <f>RunningTotals!D46-RunningTotals!C46</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E46" s="13">
         <f>RunningTotals!E46-RunningTotals!D46</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F46" s="13">
         <f>RunningTotals!F46-RunningTotals!E46</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46" s="13">
         <f>RunningTotals!G46-RunningTotals!F46</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H46" s="13">
         <f>RunningTotals!H46-RunningTotals!G46</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I46" s="13">
         <f>RunningTotals!I46-RunningTotals!H46</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J46" s="13">
         <f>RunningTotals!J46-RunningTotals!I46</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K46" s="13">
         <f>RunningTotals!K46-RunningTotals!J46</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L46" s="13">
         <f>RunningTotals!L46-RunningTotals!K46</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M46" s="14">
         <f>RunningTotals!M46-RunningTotals!L46</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="13">
         <f>RunningTotals!B47-RunningTotals!A47</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C47" s="13">
         <f>RunningTotals!C47-RunningTotals!B47</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D47" s="13">
         <f>RunningTotals!D47-RunningTotals!C47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="13">
         <f>RunningTotals!E47-RunningTotals!D47</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F47" s="13">
         <f>RunningTotals!F47-RunningTotals!E47</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G47" s="13">
         <f>RunningTotals!G47-RunningTotals!F47</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H47" s="13">
         <f>RunningTotals!H47-RunningTotals!G47</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I47" s="13">
         <f>RunningTotals!I47-RunningTotals!H47</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J47" s="13">
         <f>RunningTotals!J47-RunningTotals!I47</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K47" s="13">
         <f>RunningTotals!K47-RunningTotals!J47</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L47" s="13">
         <f>RunningTotals!L47-RunningTotals!K47</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M47" s="14">
         <f>RunningTotals!M47-RunningTotals!L47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <f>RunningTotals!B48-RunningTotals!A48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="13">
         <f>RunningTotals!C48-RunningTotals!B48</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D48" s="13">
         <f>RunningTotals!D48-RunningTotals!C48</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E48" s="13">
         <f>RunningTotals!E48-RunningTotals!D48</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F48" s="13">
         <f>RunningTotals!F48-RunningTotals!E48</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G48" s="13">
         <f>RunningTotals!G48-RunningTotals!F48</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H48" s="13">
         <f>RunningTotals!H48-RunningTotals!G48</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I48" s="13">
         <f>RunningTotals!I48-RunningTotals!H48</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J48" s="13">
         <f>RunningTotals!J48-RunningTotals!I48</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K48" s="13">
         <f>RunningTotals!K48-RunningTotals!J48</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L48" s="13">
         <f>RunningTotals!L48-RunningTotals!K48</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M48" s="14">
         <f>RunningTotals!M48-RunningTotals!L48</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <f>RunningTotals!B49-RunningTotals!A49</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C49" s="13">
         <f>RunningTotals!C49-RunningTotals!B49</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D49" s="13">
         <f>RunningTotals!D49-RunningTotals!C49</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E49" s="13">
         <f>RunningTotals!E49-RunningTotals!D49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="13">
         <f>RunningTotals!F49-RunningTotals!E49</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G49" s="13">
         <f>RunningTotals!G49-RunningTotals!F49</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H49" s="13">
         <f>RunningTotals!H49-RunningTotals!G49</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" s="13">
         <f>RunningTotals!I49-RunningTotals!H49</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J49" s="13">
         <f>RunningTotals!J49-RunningTotals!I49</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K49" s="13">
         <f>RunningTotals!K49-RunningTotals!J49</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L49" s="13">
         <f>RunningTotals!L49-RunningTotals!K49</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M49" s="14">
         <f>RunningTotals!M49-RunningTotals!L49</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <f>RunningTotals!B50-RunningTotals!A50</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C50" s="13">
         <f>RunningTotals!C50-RunningTotals!B50</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50" s="13">
         <f>RunningTotals!D50-RunningTotals!C50</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E50" s="13">
         <f>RunningTotals!E50-RunningTotals!D50</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F50" s="13">
         <f>RunningTotals!F50-RunningTotals!E50</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G50" s="13">
         <f>RunningTotals!G50-RunningTotals!F50</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H50" s="13">
         <f>RunningTotals!H50-RunningTotals!G50</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I50" s="13">
         <f>RunningTotals!I50-RunningTotals!H50</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J50" s="13">
         <f>RunningTotals!J50-RunningTotals!I50</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K50" s="13">
         <f>RunningTotals!K50-RunningTotals!J50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="13">
         <f>RunningTotals!L50-RunningTotals!K50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="14">
         <f>RunningTotals!M50-RunningTotals!L50</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <f>RunningTotals!B51-RunningTotals!A51</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C51" s="13">
         <f>RunningTotals!C51-RunningTotals!B51</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D51" s="13">
         <f>RunningTotals!D51-RunningTotals!C51</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E51" s="13">
         <f>RunningTotals!E51-RunningTotals!D51</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F51" s="13">
         <f>RunningTotals!F51-RunningTotals!E51</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G51" s="13">
         <f>RunningTotals!G51-RunningTotals!F51</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H51" s="13">
         <f>RunningTotals!H51-RunningTotals!G51</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I51" s="13">
         <f>RunningTotals!I51-RunningTotals!H51</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" s="13">
         <f>RunningTotals!J51-RunningTotals!I51</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K51" s="13">
         <f>RunningTotals!K51-RunningTotals!J51</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L51" s="13">
         <f>RunningTotals!L51-RunningTotals!K51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="14">
         <f>RunningTotals!M51-RunningTotals!L51</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <f>RunningTotals!B52-RunningTotals!A52</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C52" s="13">
         <f>RunningTotals!C52-RunningTotals!B52</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="13">
         <f>RunningTotals!D52-RunningTotals!C52</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E52" s="13">
         <f>RunningTotals!E52-RunningTotals!D52</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F52" s="13">
         <f>RunningTotals!F52-RunningTotals!E52</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G52" s="13">
         <f>RunningTotals!G52-RunningTotals!F52</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" s="13">
         <f>RunningTotals!H52-RunningTotals!G52</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I52" s="13">
         <f>RunningTotals!I52-RunningTotals!H52</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J52" s="13">
         <f>RunningTotals!J52-RunningTotals!I52</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K52" s="13">
         <f>RunningTotals!K52-RunningTotals!J52</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L52" s="13">
         <f>RunningTotals!L52-RunningTotals!K52</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M52" s="14">
         <f>RunningTotals!M52-RunningTotals!L52</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="13">
         <f>RunningTotals!B53-RunningTotals!A53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="13">
         <f>RunningTotals!C53-RunningTotals!B53</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D53" s="13">
         <f>RunningTotals!D53-RunningTotals!C53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="13">
         <f>RunningTotals!E53-RunningTotals!D53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="13">
         <f>RunningTotals!F53-RunningTotals!E53</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G53" s="13">
         <f>RunningTotals!G53-RunningTotals!F53</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H53" s="13">
         <f>RunningTotals!H53-RunningTotals!G53</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I53" s="13">
         <f>RunningTotals!I53-RunningTotals!H53</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J53" s="13">
         <f>RunningTotals!J53-RunningTotals!I53</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K53" s="13">
         <f>RunningTotals!K53-RunningTotals!J53</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L53" s="13">
         <f>RunningTotals!L53-RunningTotals!K53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="14">
         <f>RunningTotals!M53-RunningTotals!L53</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="13">
         <f>RunningTotals!B54-RunningTotals!A54</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C54" s="13">
         <f>RunningTotals!C54-RunningTotals!B54</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D54" s="13">
         <f>RunningTotals!D54-RunningTotals!C54</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E54" s="13">
         <f>RunningTotals!E54-RunningTotals!D54</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F54" s="13">
         <f>RunningTotals!F54-RunningTotals!E54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="13">
         <f>RunningTotals!G54-RunningTotals!F54</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" s="13">
         <f>RunningTotals!H54-RunningTotals!G54</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I54" s="13">
         <f>RunningTotals!I54-RunningTotals!H54</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J54" s="13">
         <f>RunningTotals!J54-RunningTotals!I54</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K54" s="13">
         <f>RunningTotals!K54-RunningTotals!J54</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54" s="13">
         <f>RunningTotals!L54-RunningTotals!K54</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M54" s="14">
         <f>RunningTotals!M54-RunningTotals!L54</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="13">
         <f>RunningTotals!B55-RunningTotals!A55</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C55" s="13">
         <f>RunningTotals!C55-RunningTotals!B55</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D55" s="13">
         <f>RunningTotals!D55-RunningTotals!C55</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E55" s="13">
         <f>RunningTotals!E55-RunningTotals!D55</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="13">
         <f>RunningTotals!F55-RunningTotals!E55</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G55" s="13">
         <f>RunningTotals!G55-RunningTotals!F55</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H55" s="13">
         <f>RunningTotals!H55-RunningTotals!G55</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I55" s="13">
         <f>RunningTotals!I55-RunningTotals!H55</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J55" s="13">
         <f>RunningTotals!J55-RunningTotals!I55</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K55" s="13">
         <f>RunningTotals!K55-RunningTotals!J55</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L55" s="13">
         <f>RunningTotals!L55-RunningTotals!K55</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M55" s="14">
         <f>RunningTotals!M55-RunningTotals!L55</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="13">
         <f>RunningTotals!B56-RunningTotals!A56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C56" s="13">
         <f>RunningTotals!C56-RunningTotals!B56</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D56" s="13">
         <f>RunningTotals!D56-RunningTotals!C56</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56" s="13">
         <f>RunningTotals!E56-RunningTotals!D56</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F56" s="13">
         <f>RunningTotals!F56-RunningTotals!E56</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G56" s="13">
         <f>RunningTotals!G56-RunningTotals!F56</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" s="13">
         <f>RunningTotals!H56-RunningTotals!G56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I56" s="13">
         <f>RunningTotals!I56-RunningTotals!H56</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J56" s="13">
         <f>RunningTotals!J56-RunningTotals!I56</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K56" s="13">
         <f>RunningTotals!K56-RunningTotals!J56</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L56" s="13">
         <f>RunningTotals!L56-RunningTotals!K56</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M56" s="14">
         <f>RunningTotals!M56-RunningTotals!L56</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="13">
         <f>RunningTotals!B57-RunningTotals!A57</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C57" s="13">
         <f>RunningTotals!C57-RunningTotals!B57</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D57" s="13">
         <f>RunningTotals!D57-RunningTotals!C57</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E57" s="13">
         <f>RunningTotals!E57-RunningTotals!D57</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F57" s="13">
         <f>RunningTotals!F57-RunningTotals!E57</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G57" s="13">
         <f>RunningTotals!G57-RunningTotals!F57</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H57" s="13">
         <f>RunningTotals!H57-RunningTotals!G57</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I57" s="13">
         <f>RunningTotals!I57-RunningTotals!H57</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" s="13">
         <f>RunningTotals!J57-RunningTotals!I57</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K57" s="13">
         <f>RunningTotals!K57-RunningTotals!J57</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L57" s="13">
         <f>RunningTotals!L57-RunningTotals!K57</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M57" s="14">
         <f>RunningTotals!M57-RunningTotals!L57</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="13">
         <f>RunningTotals!B58-RunningTotals!A58</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C58" s="13">
         <f>RunningTotals!C58-RunningTotals!B58</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D58" s="13">
         <f>RunningTotals!D58-RunningTotals!C58</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="13">
         <f>RunningTotals!E58-RunningTotals!D58</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F58" s="13">
         <f>RunningTotals!F58-RunningTotals!E58</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G58" s="13">
         <f>RunningTotals!G58-RunningTotals!F58</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H58" s="13">
         <f>RunningTotals!H58-RunningTotals!G58</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I58" s="13">
         <f>RunningTotals!I58-RunningTotals!H58</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J58" s="13">
         <f>RunningTotals!J58-RunningTotals!I58</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K58" s="13">
         <f>RunningTotals!K58-RunningTotals!J58</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L58" s="13">
         <f>RunningTotals!L58-RunningTotals!K58</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M58" s="14">
         <f>RunningTotals!M58-RunningTotals!L58</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="13">
         <f>RunningTotals!B59-RunningTotals!A59</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C59" s="13">
         <f>RunningTotals!C59-RunningTotals!B59</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D59" s="13">
         <f>RunningTotals!D59-RunningTotals!C59</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E59" s="13">
         <f>RunningTotals!E59-RunningTotals!D59</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F59" s="13">
         <f>RunningTotals!F59-RunningTotals!E59</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G59" s="13">
         <f>RunningTotals!G59-RunningTotals!F59</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H59" s="13">
         <f>RunningTotals!H59-RunningTotals!G59</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I59" s="13">
         <f>RunningTotals!I59-RunningTotals!H59</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J59" s="13">
         <f>RunningTotals!J59-RunningTotals!I59</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K59" s="13">
         <f>RunningTotals!K59-RunningTotals!J59</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L59" s="13">
         <f>RunningTotals!L59-RunningTotals!K59</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M59" s="14">
         <f>RunningTotals!M59-RunningTotals!L59</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="13">
         <f>RunningTotals!B60-RunningTotals!A60</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C60" s="13">
         <f>RunningTotals!C60-RunningTotals!B60</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D60" s="13">
         <f>RunningTotals!D60-RunningTotals!C60</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E60" s="13">
         <f>RunningTotals!E60-RunningTotals!D60</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F60" s="13">
         <f>RunningTotals!F60-RunningTotals!E60</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G60" s="13">
         <f>RunningTotals!G60-RunningTotals!F60</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" s="13">
         <f>RunningTotals!H60-RunningTotals!G60</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I60" s="13">
         <f>RunningTotals!I60-RunningTotals!H60</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J60" s="13">
         <f>RunningTotals!J60-RunningTotals!I60</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K60" s="13">
         <f>RunningTotals!K60-RunningTotals!J60</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L60" s="13">
         <f>RunningTotals!L60-RunningTotals!K60</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M60" s="14">
         <f>RunningTotals!M60-RunningTotals!L60</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="13">
         <f>RunningTotals!B61-RunningTotals!A61</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C61" s="13">
         <f>RunningTotals!C61-RunningTotals!B61</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D61" s="13">
         <f>RunningTotals!D61-RunningTotals!C61</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E61" s="13">
         <f>RunningTotals!E61-RunningTotals!D61</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F61" s="13">
         <f>RunningTotals!F61-RunningTotals!E61</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G61" s="13">
         <f>RunningTotals!G61-RunningTotals!F61</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H61" s="13">
         <f>RunningTotals!H61-RunningTotals!G61</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" s="13">
         <f>RunningTotals!I61-RunningTotals!H61</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="13">
         <f>RunningTotals!J61-RunningTotals!I61</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K61" s="13">
         <f>RunningTotals!K61-RunningTotals!J61</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L61" s="13">
         <f>RunningTotals!L61-RunningTotals!K61</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M61" s="14">
         <f>RunningTotals!M61-RunningTotals!L61</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="13">
         <f>RunningTotals!B62-RunningTotals!A62</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" s="13">
         <f>RunningTotals!C62-RunningTotals!B62</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D62" s="13">
         <f>RunningTotals!D62-RunningTotals!C62</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E62" s="13">
         <f>RunningTotals!E62-RunningTotals!D62</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F62" s="13">
         <f>RunningTotals!F62-RunningTotals!E62</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G62" s="13">
         <f>RunningTotals!G62-RunningTotals!F62</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H62" s="13">
         <f>RunningTotals!H62-RunningTotals!G62</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I62" s="13">
         <f>RunningTotals!I62-RunningTotals!H62</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62" s="13">
         <f>RunningTotals!J62-RunningTotals!I62</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="13">
         <f>RunningTotals!K62-RunningTotals!J62</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L62" s="13">
         <f>RunningTotals!L62-RunningTotals!K62</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M62" s="14">
         <f>RunningTotals!M62-RunningTotals!L62</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="13">
         <f>RunningTotals!B63-RunningTotals!A63</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C63" s="13">
         <f>RunningTotals!C63-RunningTotals!B63</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D63" s="13">
         <f>RunningTotals!D63-RunningTotals!C63</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E63" s="13">
         <f>RunningTotals!E63-RunningTotals!D63</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F63" s="13">
         <f>RunningTotals!F63-RunningTotals!E63</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G63" s="13">
         <f>RunningTotals!G63-RunningTotals!F63</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H63" s="13">
         <f>RunningTotals!H63-RunningTotals!G63</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I63" s="13">
         <f>RunningTotals!I63-RunningTotals!H63</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J63" s="13">
         <f>RunningTotals!J63-RunningTotals!I63</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K63" s="13">
         <f>RunningTotals!K63-RunningTotals!J63</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L63" s="13">
         <f>RunningTotals!L63-RunningTotals!K63</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M63" s="14">
         <f>RunningTotals!M63-RunningTotals!L63</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="13">
         <f>RunningTotals!B64-RunningTotals!A64</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C64" s="13">
         <f>RunningTotals!C64-RunningTotals!B64</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D64" s="13">
         <f>RunningTotals!D64-RunningTotals!C64</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E64" s="13">
         <f>RunningTotals!E64-RunningTotals!D64</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F64" s="13">
         <f>RunningTotals!F64-RunningTotals!E64</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G64" s="13">
         <f>RunningTotals!G64-RunningTotals!F64</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H64" s="13">
         <f>RunningTotals!H64-RunningTotals!G64</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I64" s="13">
         <f>RunningTotals!I64-RunningTotals!H64</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" s="13">
         <f>RunningTotals!J64-RunningTotals!I64</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K64" s="13">
         <f>RunningTotals!K64-RunningTotals!J64</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L64" s="13">
         <f>RunningTotals!L64-RunningTotals!K64</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M64" s="14">
         <f>RunningTotals!M64-RunningTotals!L64</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="13">
         <f>RunningTotals!B65-RunningTotals!A65</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="13">
         <f>RunningTotals!C65-RunningTotals!B65</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="13">
         <f>RunningTotals!D65-RunningTotals!C65</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E65" s="13">
         <f>RunningTotals!E65-RunningTotals!D65</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F65" s="13">
         <f>RunningTotals!F65-RunningTotals!E65</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G65" s="13">
         <f>RunningTotals!G65-RunningTotals!F65</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="13">
         <f>RunningTotals!H65-RunningTotals!G65</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I65" s="13">
         <f>RunningTotals!I65-RunningTotals!H65</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J65" s="13">
         <f>RunningTotals!J65-RunningTotals!I65</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K65" s="13">
         <f>RunningTotals!K65-RunningTotals!J65</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L65" s="13">
         <f>RunningTotals!L65-RunningTotals!K65</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M65" s="14">
         <f>RunningTotals!M65-RunningTotals!L65</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="13">
         <f>RunningTotals!B66-RunningTotals!A66</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C66" s="13">
         <f>RunningTotals!C66-RunningTotals!B66</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D66" s="13">
         <f>RunningTotals!D66-RunningTotals!C66</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E66" s="13">
         <f>RunningTotals!E66-RunningTotals!D66</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="13">
         <f>RunningTotals!F66-RunningTotals!E66</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G66" s="13">
         <f>RunningTotals!G66-RunningTotals!F66</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H66" s="13">
         <f>RunningTotals!H66-RunningTotals!G66</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66" s="13">
         <f>RunningTotals!I66-RunningTotals!H66</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J66" s="13">
         <f>RunningTotals!J66-RunningTotals!I66</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66" s="13">
         <f>RunningTotals!K66-RunningTotals!J66</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="13">
         <f>RunningTotals!L66-RunningTotals!K66</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M66" s="14">
         <f>RunningTotals!M66-RunningTotals!L66</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="13">
         <f>RunningTotals!B67-RunningTotals!A67</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C67" s="13">
         <f>RunningTotals!C67-RunningTotals!B67</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D67" s="13">
         <f>RunningTotals!D67-RunningTotals!C67</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E67" s="13">
         <f>RunningTotals!E67-RunningTotals!D67</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F67" s="13">
         <f>RunningTotals!F67-RunningTotals!E67</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G67" s="13">
         <f>RunningTotals!G67-RunningTotals!F67</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" s="13">
         <f>RunningTotals!H67-RunningTotals!G67</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I67" s="13">
         <f>RunningTotals!I67-RunningTotals!H67</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J67" s="13">
         <f>RunningTotals!J67-RunningTotals!I67</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K67" s="13">
         <f>RunningTotals!K67-RunningTotals!J67</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L67" s="13">
         <f>RunningTotals!L67-RunningTotals!K67</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M67" s="14">
         <f>RunningTotals!M67-RunningTotals!L67</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <f>RunningTotals!B68-RunningTotals!A68</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C68" s="13">
         <f>RunningTotals!C68-RunningTotals!B68</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D68" s="13">
         <f>RunningTotals!D68-RunningTotals!C68</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68" s="13">
         <f>RunningTotals!E68-RunningTotals!D68</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F68" s="13">
         <f>RunningTotals!F68-RunningTotals!E68</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G68" s="13">
         <f>RunningTotals!G68-RunningTotals!F68</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H68" s="13">
         <f>RunningTotals!H68-RunningTotals!G68</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I68" s="13">
         <f>RunningTotals!I68-RunningTotals!H68</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J68" s="13">
         <f>RunningTotals!J68-RunningTotals!I68</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K68" s="13">
         <f>RunningTotals!K68-RunningTotals!J68</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L68" s="13">
         <f>RunningTotals!L68-RunningTotals!K68</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M68" s="14">
         <f>RunningTotals!M68-RunningTotals!L68</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="13">
         <f>RunningTotals!B69-RunningTotals!A69</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C69" s="13">
         <f>RunningTotals!C69-RunningTotals!B69</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D69" s="13">
         <f>RunningTotals!D69-RunningTotals!C69</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E69" s="13">
         <f>RunningTotals!E69-RunningTotals!D69</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F69" s="13">
         <f>RunningTotals!F69-RunningTotals!E69</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G69" s="13">
         <f>RunningTotals!G69-RunningTotals!F69</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="13">
         <f>RunningTotals!H69-RunningTotals!G69</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" s="13">
         <f>RunningTotals!I69-RunningTotals!H69</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="13">
         <f>RunningTotals!J69-RunningTotals!I69</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K69" s="13">
         <f>RunningTotals!K69-RunningTotals!J69</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L69" s="13">
         <f>RunningTotals!L69-RunningTotals!K69</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M69" s="14">
         <f>RunningTotals!M69-RunningTotals!L69</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="13">
         <f>RunningTotals!B70-RunningTotals!A70</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C70" s="13">
         <f>RunningTotals!C70-RunningTotals!B70</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D70" s="13">
         <f>RunningTotals!D70-RunningTotals!C70</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E70" s="13">
         <f>RunningTotals!E70-RunningTotals!D70</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F70" s="13">
         <f>RunningTotals!F70-RunningTotals!E70</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G70" s="13">
         <f>RunningTotals!G70-RunningTotals!F70</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H70" s="13">
         <f>RunningTotals!H70-RunningTotals!G70</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I70" s="13">
         <f>RunningTotals!I70-RunningTotals!H70</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J70" s="13">
         <f>RunningTotals!J70-RunningTotals!I70</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K70" s="13">
         <f>RunningTotals!K70-RunningTotals!J70</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L70" s="13">
         <f>RunningTotals!L70-RunningTotals!K70</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M70" s="14">
         <f>RunningTotals!M70-RunningTotals!L70</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="13">
         <f>RunningTotals!B71-RunningTotals!A71</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C71" s="13">
         <f>RunningTotals!C71-RunningTotals!B71</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D71" s="13">
         <f>RunningTotals!D71-RunningTotals!C71</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E71" s="13">
         <f>RunningTotals!E71-RunningTotals!D71</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="13">
         <f>RunningTotals!F71-RunningTotals!E71</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" s="13">
         <f>RunningTotals!G71-RunningTotals!F71</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H71" s="13">
         <f>RunningTotals!H71-RunningTotals!G71</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I71" s="13">
         <f>RunningTotals!I71-RunningTotals!H71</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J71" s="13">
         <f>RunningTotals!J71-RunningTotals!I71</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K71" s="13">
         <f>RunningTotals!K71-RunningTotals!J71</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L71" s="13">
         <f>RunningTotals!L71-RunningTotals!K71</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M71" s="14">
         <f>RunningTotals!M71-RunningTotals!L71</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="13">
         <f>RunningTotals!B72-RunningTotals!A72</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C72" s="13">
         <f>RunningTotals!C72-RunningTotals!B72</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D72" s="13">
         <f>RunningTotals!D72-RunningTotals!C72</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E72" s="13">
         <f>RunningTotals!E72-RunningTotals!D72</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F72" s="13">
         <f>RunningTotals!F72-RunningTotals!E72</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G72" s="13">
         <f>RunningTotals!G72-RunningTotals!F72</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H72" s="13">
         <f>RunningTotals!H72-RunningTotals!G72</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" s="13">
         <f>RunningTotals!I72-RunningTotals!H72</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" s="13">
         <f>RunningTotals!J72-RunningTotals!I72</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K72" s="13">
         <f>RunningTotals!K72-RunningTotals!J72</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L72" s="13">
         <f>RunningTotals!L72-RunningTotals!K72</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M72" s="14">
         <f>RunningTotals!M72-RunningTotals!L72</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="13">
         <f>RunningTotals!B73-RunningTotals!A73</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C73" s="13">
         <f>RunningTotals!C73-RunningTotals!B73</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D73" s="13">
         <f>RunningTotals!D73-RunningTotals!C73</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E73" s="13">
         <f>RunningTotals!E73-RunningTotals!D73</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F73" s="13">
         <f>RunningTotals!F73-RunningTotals!E73</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="13">
         <f>RunningTotals!G73-RunningTotals!F73</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H73" s="13">
         <f>RunningTotals!H73-RunningTotals!G73</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I73" s="13">
         <f>RunningTotals!I73-RunningTotals!H73</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J73" s="13">
         <f>RunningTotals!J73-RunningTotals!I73</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K73" s="13">
         <f>RunningTotals!K73-RunningTotals!J73</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L73" s="13">
         <f>RunningTotals!L73-RunningTotals!K73</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M73" s="14">
         <f>RunningTotals!M73-RunningTotals!L73</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="13">
         <f>RunningTotals!B74-RunningTotals!A74</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C74" s="13">
         <f>RunningTotals!C74-RunningTotals!B74</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D74" s="13">
         <f>RunningTotals!D74-RunningTotals!C74</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E74" s="13">
         <f>RunningTotals!E74-RunningTotals!D74</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F74" s="13">
         <f>RunningTotals!F74-RunningTotals!E74</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G74" s="13">
         <f>RunningTotals!G74-RunningTotals!F74</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H74" s="13">
         <f>RunningTotals!H74-RunningTotals!G74</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I74" s="13">
         <f>RunningTotals!I74-RunningTotals!H74</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J74" s="13">
         <f>RunningTotals!J74-RunningTotals!I74</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K74" s="13">
         <f>RunningTotals!K74-RunningTotals!J74</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L74" s="13">
         <f>RunningTotals!L74-RunningTotals!K74</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M74" s="14">
         <f>RunningTotals!M74-RunningTotals!L74</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="13">
         <f>RunningTotals!B75-RunningTotals!A75</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C75" s="13">
         <f>RunningTotals!C75-RunningTotals!B75</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D75" s="13">
         <f>RunningTotals!D75-RunningTotals!C75</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E75" s="13">
         <f>RunningTotals!E75-RunningTotals!D75</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F75" s="13">
         <f>RunningTotals!F75-RunningTotals!E75</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G75" s="13">
         <f>RunningTotals!G75-RunningTotals!F75</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H75" s="13">
         <f>RunningTotals!H75-RunningTotals!G75</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I75" s="13">
         <f>RunningTotals!I75-RunningTotals!H75</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J75" s="13">
         <f>RunningTotals!J75-RunningTotals!I75</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K75" s="13">
         <f>RunningTotals!K75-RunningTotals!J75</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L75" s="13">
         <f>RunningTotals!L75-RunningTotals!K75</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M75" s="14">
         <f>RunningTotals!M75-RunningTotals!L75</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="13">
         <f>RunningTotals!B76-RunningTotals!A76</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C76" s="13">
         <f>RunningTotals!C76-RunningTotals!B76</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D76" s="13">
         <f>RunningTotals!D76-RunningTotals!C76</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E76" s="13">
         <f>RunningTotals!E76-RunningTotals!D76</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F76" s="13">
         <f>RunningTotals!F76-RunningTotals!E76</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G76" s="13">
         <f>RunningTotals!G76-RunningTotals!F76</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H76" s="13">
         <f>RunningTotals!H76-RunningTotals!G76</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I76" s="13">
         <f>RunningTotals!I76-RunningTotals!H76</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" s="13">
         <f>RunningTotals!J76-RunningTotals!I76</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K76" s="13">
         <f>RunningTotals!K76-RunningTotals!J76</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L76" s="13">
         <f>RunningTotals!L76-RunningTotals!K76</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M76" s="14">
         <f>RunningTotals!M76-RunningTotals!L76</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="13">
         <f>RunningTotals!B77-RunningTotals!A77</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C77" s="13">
         <f>RunningTotals!C77-RunningTotals!B77</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D77" s="13">
         <f>RunningTotals!D77-RunningTotals!C77</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E77" s="13">
         <f>RunningTotals!E77-RunningTotals!D77</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F77" s="13">
         <f>RunningTotals!F77-RunningTotals!E77</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G77" s="13">
         <f>RunningTotals!G77-RunningTotals!F77</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H77" s="13">
         <f>RunningTotals!H77-RunningTotals!G77</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I77" s="13">
         <f>RunningTotals!I77-RunningTotals!H77</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J77" s="13">
         <f>RunningTotals!J77-RunningTotals!I77</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K77" s="13">
         <f>RunningTotals!K77-RunningTotals!J77</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L77" s="13">
         <f>RunningTotals!L77-RunningTotals!K77</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M77" s="14">
         <f>RunningTotals!M77-RunningTotals!L77</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="13">
         <f>RunningTotals!B78-RunningTotals!A78</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C78" s="13">
         <f>RunningTotals!C78-RunningTotals!B78</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D78" s="13">
         <f>RunningTotals!D78-RunningTotals!C78</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E78" s="13">
         <f>RunningTotals!E78-RunningTotals!D78</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F78" s="13">
         <f>RunningTotals!F78-RunningTotals!E78</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G78" s="13">
         <f>RunningTotals!G78-RunningTotals!F78</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H78" s="13">
         <f>RunningTotals!H78-RunningTotals!G78</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I78" s="13">
         <f>RunningTotals!I78-RunningTotals!H78</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J78" s="13">
         <f>RunningTotals!J78-RunningTotals!I78</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="13">
         <f>RunningTotals!K78-RunningTotals!J78</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="13">
         <f>RunningTotals!L78-RunningTotals!K78</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M78" s="14">
         <f>RunningTotals!M78-RunningTotals!L78</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -7453,8 +8859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1A60FD-2757-4A7B-854E-D9F9DB872D7A}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="119" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView topLeftCell="A71" zoomScale="119" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9505,1853 +10911,1853 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="e">
+      <c r="B42" s="13">
         <f>VLOOKUP(Points!B42, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C42" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="C42" s="13">
         <f>VLOOKUP(Points!C42, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D42" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="D42" s="13">
         <f>VLOOKUP(Points!D42, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E42" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="E42" s="13">
         <f>VLOOKUP(Points!E42, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F42" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="F42" s="13">
         <f>VLOOKUP(Points!F42, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G42" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="G42" s="13">
         <f>VLOOKUP(Points!G42, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H42" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="H42" s="13">
         <f>VLOOKUP(Points!H42, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I42" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="I42" s="13">
         <f>VLOOKUP(Points!I42, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J42" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="J42" s="13">
         <f>VLOOKUP(Points!J42, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K42" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="K42" s="13">
         <f>VLOOKUP(Points!K42, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L42" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="L42" s="13">
         <f>VLOOKUP(Points!L42, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M42" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="M42" s="13">
         <f>VLOOKUP(Points!M42, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="e">
+      <c r="B43" s="13">
         <f>VLOOKUP(Points!B43, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C43" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="C43" s="13">
         <f>VLOOKUP(Points!C43, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D43" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="D43" s="13">
         <f>VLOOKUP(Points!D43, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E43" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13">
         <f>VLOOKUP(Points!E43, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F43" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="F43" s="13">
         <f>VLOOKUP(Points!F43, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G43" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="G43" s="13">
         <f>VLOOKUP(Points!G43, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H43" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="H43" s="13">
         <f>VLOOKUP(Points!H43, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I43" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="I43" s="13">
         <f>VLOOKUP(Points!I43, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J43" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="J43" s="13">
         <f>VLOOKUP(Points!J43, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K43" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="K43" s="13">
         <f>VLOOKUP(Points!K43, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L43" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="L43" s="13">
         <f>VLOOKUP(Points!L43, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M43" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="M43" s="13">
         <f>VLOOKUP(Points!M43, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="13" t="e">
+      <c r="B44" s="13">
         <f>VLOOKUP(Points!B44, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C44" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="C44" s="13">
         <f>VLOOKUP(Points!C44, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D44" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="D44" s="13">
         <f>VLOOKUP(Points!D44, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E44" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="E44" s="13">
         <f>VLOOKUP(Points!E44, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F44" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="F44" s="13">
         <f>VLOOKUP(Points!F44, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G44" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="G44" s="13">
         <f>VLOOKUP(Points!G44, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H44" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="H44" s="13">
         <f>VLOOKUP(Points!H44, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I44" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="I44" s="13">
         <f>VLOOKUP(Points!I44, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J44" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="J44" s="13">
         <f>VLOOKUP(Points!J44, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K44" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="K44" s="13">
         <f>VLOOKUP(Points!K44, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L44" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="L44" s="13">
         <f>VLOOKUP(Points!L44, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M44" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="M44" s="13">
         <f>VLOOKUP(Points!M44, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="e">
+      <c r="B45" s="13">
         <f>VLOOKUP(Points!B45, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C45" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="C45" s="13">
         <f>VLOOKUP(Points!C45, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D45" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="D45" s="13">
         <f>VLOOKUP(Points!D45, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E45" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="E45" s="13">
         <f>VLOOKUP(Points!E45, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F45" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="F45" s="13">
         <f>VLOOKUP(Points!F45, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G45" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="G45" s="13">
         <f>VLOOKUP(Points!G45, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H45" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="H45" s="13">
         <f>VLOOKUP(Points!H45, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I45" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="I45" s="13">
         <f>VLOOKUP(Points!I45, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J45" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="J45" s="13">
         <f>VLOOKUP(Points!J45, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K45" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="K45" s="13">
         <f>VLOOKUP(Points!K45, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L45" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="L45" s="13">
         <f>VLOOKUP(Points!L45, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M45" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="M45" s="13">
         <f>VLOOKUP(Points!M45, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="e">
+      <c r="B46" s="13">
         <f>VLOOKUP(Points!B46, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C46" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="C46" s="13">
         <f>VLOOKUP(Points!C46, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D46" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="D46" s="13">
         <f>VLOOKUP(Points!D46, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E46" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="E46" s="13">
         <f>VLOOKUP(Points!E46, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F46" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="F46" s="13">
         <f>VLOOKUP(Points!F46, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G46" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="G46" s="13">
         <f>VLOOKUP(Points!G46, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H46" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="H46" s="13">
         <f>VLOOKUP(Points!H46, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I46" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="I46" s="13">
         <f>VLOOKUP(Points!I46, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J46" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="J46" s="13">
         <f>VLOOKUP(Points!J46, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K46" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="K46" s="13">
         <f>VLOOKUP(Points!K46, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L46" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="L46" s="13">
         <f>VLOOKUP(Points!L46, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M46" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="M46" s="13">
         <f>VLOOKUP(Points!M46, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="e">
+      <c r="B47" s="13">
         <f>VLOOKUP(Points!B47, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C47" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="C47" s="13">
         <f>VLOOKUP(Points!C47, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D47" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="D47" s="13">
         <f>VLOOKUP(Points!D47, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E47" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="E47" s="13">
         <f>VLOOKUP(Points!E47, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F47" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="F47" s="13">
         <f>VLOOKUP(Points!F47, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G47" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="G47" s="13">
         <f>VLOOKUP(Points!G47, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H47" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="H47" s="13">
         <f>VLOOKUP(Points!H47, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I47" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="I47" s="13">
         <f>VLOOKUP(Points!I47, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J47" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="J47" s="13">
         <f>VLOOKUP(Points!J47, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K47" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="K47" s="13">
         <f>VLOOKUP(Points!K47, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L47" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="L47" s="13">
         <f>VLOOKUP(Points!L47, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M47" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="M47" s="13">
         <f>VLOOKUP(Points!M47, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="e">
+      <c r="B48" s="13">
         <f>VLOOKUP(Points!B48, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C48" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="C48" s="13">
         <f>VLOOKUP(Points!C48, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D48" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="D48" s="13">
         <f>VLOOKUP(Points!D48, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E48" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="E48" s="13">
         <f>VLOOKUP(Points!E48, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F48" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="F48" s="13">
         <f>VLOOKUP(Points!F48, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G48" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="G48" s="13">
         <f>VLOOKUP(Points!G48, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H48" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="H48" s="13">
         <f>VLOOKUP(Points!H48, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I48" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="I48" s="13">
         <f>VLOOKUP(Points!I48, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J48" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="J48" s="13">
         <f>VLOOKUP(Points!J48, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K48" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="K48" s="13">
         <f>VLOOKUP(Points!K48, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L48" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="L48" s="13">
         <f>VLOOKUP(Points!L48, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M48" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="M48" s="13">
         <f>VLOOKUP(Points!M48, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="e">
+      <c r="B49" s="13">
         <f>VLOOKUP(Points!B49, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C49" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="C49" s="13">
         <f>VLOOKUP(Points!C49, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D49" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="D49" s="13">
         <f>VLOOKUP(Points!D49, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E49" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="E49" s="13">
         <f>VLOOKUP(Points!E49, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F49" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="F49" s="13">
         <f>VLOOKUP(Points!F49, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G49" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13">
         <f>VLOOKUP(Points!G49, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H49" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="H49" s="13">
         <f>VLOOKUP(Points!H49, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I49" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="I49" s="13">
         <f>VLOOKUP(Points!I49, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J49" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="J49" s="13">
         <f>VLOOKUP(Points!J49, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K49" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="K49" s="13">
         <f>VLOOKUP(Points!K49, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L49" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="L49" s="13">
         <f>VLOOKUP(Points!L49, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M49" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="M49" s="13">
         <f>VLOOKUP(Points!M49, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="e">
+      <c r="B50" s="13">
         <f>VLOOKUP(Points!B50, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C50" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="C50" s="13">
         <f>VLOOKUP(Points!C50, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D50" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="D50" s="13">
         <f>VLOOKUP(Points!D50, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E50" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="E50" s="13">
         <f>VLOOKUP(Points!E50, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F50" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="F50" s="13">
         <f>VLOOKUP(Points!F50, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G50" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="G50" s="13">
         <f>VLOOKUP(Points!G50, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H50" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="H50" s="13">
         <f>VLOOKUP(Points!H50, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I50" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="I50" s="13">
         <f>VLOOKUP(Points!I50, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J50" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="J50" s="13">
         <f>VLOOKUP(Points!J50, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K50" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="K50" s="13">
         <f>VLOOKUP(Points!K50, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L50" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="L50" s="13">
         <f>VLOOKUP(Points!L50, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M50" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="M50" s="13">
         <f>VLOOKUP(Points!M50, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="e">
+      <c r="B51" s="13">
         <f>VLOOKUP(Points!B51, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C51" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="C51" s="13">
         <f>VLOOKUP(Points!C51, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D51" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="D51" s="13">
         <f>VLOOKUP(Points!D51, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E51" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="E51" s="13">
         <f>VLOOKUP(Points!E51, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F51" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="F51" s="13">
         <f>VLOOKUP(Points!F51, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G51" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="G51" s="13">
         <f>VLOOKUP(Points!G51, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H51" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="H51" s="13">
         <f>VLOOKUP(Points!H51, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I51" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="I51" s="13">
         <f>VLOOKUP(Points!I51, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J51" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="J51" s="13">
         <f>VLOOKUP(Points!J51, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K51" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="K51" s="13">
         <f>VLOOKUP(Points!K51, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L51" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="L51" s="13">
         <f>VLOOKUP(Points!L51, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M51" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="M51" s="13">
         <f>VLOOKUP(Points!M51, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="13" t="e">
+      <c r="B52" s="13">
         <f>VLOOKUP(Points!B52, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C52" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="C52" s="13">
         <f>VLOOKUP(Points!C52, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D52" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="D52" s="13">
         <f>VLOOKUP(Points!D52, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E52" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="E52" s="13">
         <f>VLOOKUP(Points!E52, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F52" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="F52" s="13">
         <f>VLOOKUP(Points!F52, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G52" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="G52" s="13">
         <f>VLOOKUP(Points!G52, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H52" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="H52" s="13">
         <f>VLOOKUP(Points!H52, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I52" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="I52" s="13">
         <f>VLOOKUP(Points!I52, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J52" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="J52" s="13">
         <f>VLOOKUP(Points!J52, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K52" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="K52" s="13">
         <f>VLOOKUP(Points!K52, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L52" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="L52" s="13">
         <f>VLOOKUP(Points!L52, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M52" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="M52" s="13">
         <f>VLOOKUP(Points!M52, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="e">
+      <c r="B53" s="13">
         <f>VLOOKUP(Points!B53, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C53" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="C53" s="13">
         <f>VLOOKUP(Points!C53, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D53" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="D53" s="13">
         <f>VLOOKUP(Points!D53, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E53" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="E53" s="13">
         <f>VLOOKUP(Points!E53, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F53" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="F53" s="13">
         <f>VLOOKUP(Points!F53, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G53" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="G53" s="13">
         <f>VLOOKUP(Points!G53, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H53" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="H53" s="13">
         <f>VLOOKUP(Points!H53, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I53" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="I53" s="13">
         <f>VLOOKUP(Points!I53, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J53" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="J53" s="13">
         <f>VLOOKUP(Points!J53, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K53" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="K53" s="13">
         <f>VLOOKUP(Points!K53, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L53" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="L53" s="13">
         <f>VLOOKUP(Points!L53, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M53" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="M53" s="13">
         <f>VLOOKUP(Points!M53, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="e">
+      <c r="B54" s="13">
         <f>VLOOKUP(Points!B54, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C54" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="C54" s="13">
         <f>VLOOKUP(Points!C54, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D54" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="D54" s="13">
         <f>VLOOKUP(Points!D54, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E54" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="E54" s="13">
         <f>VLOOKUP(Points!E54, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F54" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="F54" s="13">
         <f>VLOOKUP(Points!F54, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G54" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="G54" s="13">
         <f>VLOOKUP(Points!G54, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H54" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="H54" s="13">
         <f>VLOOKUP(Points!H54, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I54" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="I54" s="13">
         <f>VLOOKUP(Points!I54, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J54" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="J54" s="13">
         <f>VLOOKUP(Points!J54, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K54" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="K54" s="13">
         <f>VLOOKUP(Points!K54, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L54" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="L54" s="13">
         <f>VLOOKUP(Points!L54, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M54" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="M54" s="13">
         <f>VLOOKUP(Points!M54, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="e">
+      <c r="B55" s="13">
         <f>VLOOKUP(Points!B55, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C55" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="C55" s="13">
         <f>VLOOKUP(Points!C55, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D55" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="D55" s="13">
         <f>VLOOKUP(Points!D55, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E55" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="E55" s="13">
         <f>VLOOKUP(Points!E55, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F55" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="F55" s="13">
         <f>VLOOKUP(Points!F55, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G55" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="G55" s="13">
         <f>VLOOKUP(Points!G55, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H55" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="H55" s="13">
         <f>VLOOKUP(Points!H55, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I55" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="I55" s="13">
         <f>VLOOKUP(Points!I55, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J55" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="J55" s="13">
         <f>VLOOKUP(Points!J55, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K55" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="K55" s="13">
         <f>VLOOKUP(Points!K55, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L55" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="L55" s="13">
         <f>VLOOKUP(Points!L55, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M55" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="M55" s="13">
         <f>VLOOKUP(Points!M55, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="e">
+      <c r="B56" s="13">
         <f>VLOOKUP(Points!B56, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C56" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="C56" s="13">
         <f>VLOOKUP(Points!C56, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D56" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="D56" s="13">
         <f>VLOOKUP(Points!D56, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E56" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="E56" s="13">
         <f>VLOOKUP(Points!E56, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F56" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="F56" s="13">
         <f>VLOOKUP(Points!F56, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G56" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="G56" s="13">
         <f>VLOOKUP(Points!G56, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H56" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="H56" s="13">
         <f>VLOOKUP(Points!H56, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I56" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="I56" s="13">
         <f>VLOOKUP(Points!I56, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J56" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="J56" s="13">
         <f>VLOOKUP(Points!J56, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K56" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="K56" s="13">
         <f>VLOOKUP(Points!K56, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L56" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="L56" s="13">
         <f>VLOOKUP(Points!L56, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M56" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="M56" s="13">
         <f>VLOOKUP(Points!M56, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="e">
+      <c r="B57" s="13">
         <f>VLOOKUP(Points!B57, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C57" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="C57" s="13">
         <f>VLOOKUP(Points!C57, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D57" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="D57" s="13">
         <f>VLOOKUP(Points!D57, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E57" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="E57" s="13">
         <f>VLOOKUP(Points!E57, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F57" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="F57" s="13">
         <f>VLOOKUP(Points!F57, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G57" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="G57" s="13">
         <f>VLOOKUP(Points!G57, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H57" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="H57" s="13">
         <f>VLOOKUP(Points!H57, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I57" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="I57" s="13">
         <f>VLOOKUP(Points!I57, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J57" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="J57" s="13">
         <f>VLOOKUP(Points!J57, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K57" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="K57" s="13">
         <f>VLOOKUP(Points!K57, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L57" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="L57" s="13">
         <f>VLOOKUP(Points!L57, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M57" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="M57" s="13">
         <f>VLOOKUP(Points!M57, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="e">
+      <c r="B58" s="13">
         <f>VLOOKUP(Points!B58, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C58" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="C58" s="13">
         <f>VLOOKUP(Points!C58, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D58" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="D58" s="13">
         <f>VLOOKUP(Points!D58, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E58" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="E58" s="13">
         <f>VLOOKUP(Points!E58, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F58" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="F58" s="13">
         <f>VLOOKUP(Points!F58, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G58" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13">
         <f>VLOOKUP(Points!G58, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H58" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="H58" s="13">
         <f>VLOOKUP(Points!H58, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I58" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="I58" s="13">
         <f>VLOOKUP(Points!I58, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J58" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="J58" s="13">
         <f>VLOOKUP(Points!J58, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K58" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="K58" s="13">
         <f>VLOOKUP(Points!K58, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L58" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="L58" s="13">
         <f>VLOOKUP(Points!L58, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M58" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="M58" s="13">
         <f>VLOOKUP(Points!M58, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="e">
+      <c r="B59" s="13">
         <f>VLOOKUP(Points!B59, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C59" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="C59" s="13">
         <f>VLOOKUP(Points!C59, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D59" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="D59" s="13">
         <f>VLOOKUP(Points!D59, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E59" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13">
         <f>VLOOKUP(Points!E59, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F59" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="F59" s="13">
         <f>VLOOKUP(Points!F59, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G59" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="G59" s="13">
         <f>VLOOKUP(Points!G59, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H59" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="H59" s="13">
         <f>VLOOKUP(Points!H59, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I59" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="I59" s="13">
         <f>VLOOKUP(Points!I59, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J59" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="J59" s="13">
         <f>VLOOKUP(Points!J59, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K59" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="K59" s="13">
         <f>VLOOKUP(Points!K59, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L59" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="L59" s="13">
         <f>VLOOKUP(Points!L59, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M59" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="M59" s="13">
         <f>VLOOKUP(Points!M59, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="e">
+      <c r="B60" s="13">
         <f>VLOOKUP(Points!B60, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C60" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="C60" s="13">
         <f>VLOOKUP(Points!C60, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D60" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="D60" s="13">
         <f>VLOOKUP(Points!D60, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E60" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="E60" s="13">
         <f>VLOOKUP(Points!E60, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F60" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="F60" s="13">
         <f>VLOOKUP(Points!F60, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G60" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="G60" s="13">
         <f>VLOOKUP(Points!G60, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H60" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="H60" s="13">
         <f>VLOOKUP(Points!H60, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I60" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="I60" s="13">
         <f>VLOOKUP(Points!I60, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J60" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="J60" s="13">
         <f>VLOOKUP(Points!J60, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K60" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="K60" s="13">
         <f>VLOOKUP(Points!K60, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L60" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="L60" s="13">
         <f>VLOOKUP(Points!L60, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M60" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="M60" s="13">
         <f>VLOOKUP(Points!M60, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="e">
+      <c r="B61" s="13">
         <f>VLOOKUP(Points!B61, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C61" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="C61" s="13">
         <f>VLOOKUP(Points!C61, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D61" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="D61" s="13">
         <f>VLOOKUP(Points!D61, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E61" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="E61" s="13">
         <f>VLOOKUP(Points!E61, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F61" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="F61" s="13">
         <f>VLOOKUP(Points!F61, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G61" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="G61" s="13">
         <f>VLOOKUP(Points!G61, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H61" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="H61" s="13">
         <f>VLOOKUP(Points!H61, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I61" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="I61" s="13">
         <f>VLOOKUP(Points!I61, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J61" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="J61" s="13">
         <f>VLOOKUP(Points!J61, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K61" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="K61" s="13">
         <f>VLOOKUP(Points!K61, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L61" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="L61" s="13">
         <f>VLOOKUP(Points!L61, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M61" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="M61" s="13">
         <f>VLOOKUP(Points!M61, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="e">
+      <c r="B62" s="13">
         <f>VLOOKUP(Points!B62, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C62" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="C62" s="13">
         <f>VLOOKUP(Points!C62, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D62" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="D62" s="13">
         <f>VLOOKUP(Points!D62, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E62" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="E62" s="13">
         <f>VLOOKUP(Points!E62, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F62" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="F62" s="13">
         <f>VLOOKUP(Points!F62, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G62" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="G62" s="13">
         <f>VLOOKUP(Points!G62, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H62" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="H62" s="13">
         <f>VLOOKUP(Points!H62, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I62" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="I62" s="13">
         <f>VLOOKUP(Points!I62, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J62" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="J62" s="13">
         <f>VLOOKUP(Points!J62, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K62" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="K62" s="13">
         <f>VLOOKUP(Points!K62, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L62" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="L62" s="13">
         <f>VLOOKUP(Points!L62, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M62" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="M62" s="13">
         <f>VLOOKUP(Points!M62, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="e">
+      <c r="B63" s="13">
         <f>VLOOKUP(Points!B63, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C63" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="C63" s="13">
         <f>VLOOKUP(Points!C63, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D63" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="D63" s="13">
         <f>VLOOKUP(Points!D63, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E63" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="E63" s="13">
         <f>VLOOKUP(Points!E63, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F63" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="F63" s="13">
         <f>VLOOKUP(Points!F63, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G63" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="G63" s="13">
         <f>VLOOKUP(Points!G63, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H63" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="H63" s="13">
         <f>VLOOKUP(Points!H63, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I63" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="I63" s="13">
         <f>VLOOKUP(Points!I63, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J63" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="J63" s="13">
         <f>VLOOKUP(Points!J63, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K63" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="K63" s="13">
         <f>VLOOKUP(Points!K63, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L63" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="L63" s="13">
         <f>VLOOKUP(Points!L63, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M63" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="M63" s="13">
         <f>VLOOKUP(Points!M63, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="e">
+      <c r="B64" s="13">
         <f>VLOOKUP(Points!B64, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C64" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="C64" s="13">
         <f>VLOOKUP(Points!C64, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D64" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="D64" s="13">
         <f>VLOOKUP(Points!D64, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E64" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="E64" s="13">
         <f>VLOOKUP(Points!E64, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F64" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="F64" s="13">
         <f>VLOOKUP(Points!F64, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G64" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="G64" s="13">
         <f>VLOOKUP(Points!G64, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H64" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="H64" s="13">
         <f>VLOOKUP(Points!H64, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I64" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="I64" s="13">
         <f>VLOOKUP(Points!I64, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J64" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="J64" s="13">
         <f>VLOOKUP(Points!J64, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K64" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="K64" s="13">
         <f>VLOOKUP(Points!K64, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L64" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="L64" s="13">
         <f>VLOOKUP(Points!L64, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M64" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="M64" s="13">
         <f>VLOOKUP(Points!M64, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="13" t="e">
+      <c r="B65" s="13">
         <f>VLOOKUP(Points!B65, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C65" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="C65" s="13">
         <f>VLOOKUP(Points!C65, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D65" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="D65" s="13">
         <f>VLOOKUP(Points!D65, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E65" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="E65" s="13">
         <f>VLOOKUP(Points!E65, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F65" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="F65" s="13">
         <f>VLOOKUP(Points!F65, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G65" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="G65" s="13">
         <f>VLOOKUP(Points!G65, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H65" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="H65" s="13">
         <f>VLOOKUP(Points!H65, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I65" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="I65" s="13">
         <f>VLOOKUP(Points!I65, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J65" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="J65" s="13">
         <f>VLOOKUP(Points!J65, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K65" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="K65" s="13">
         <f>VLOOKUP(Points!K65, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L65" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="L65" s="13">
         <f>VLOOKUP(Points!L65, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M65" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="M65" s="13">
         <f>VLOOKUP(Points!M65, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="13" t="e">
+      <c r="B66" s="13">
         <f>VLOOKUP(Points!B66, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C66" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="C66" s="13">
         <f>VLOOKUP(Points!C66, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D66" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="D66" s="13">
         <f>VLOOKUP(Points!D66, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E66" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="E66" s="13">
         <f>VLOOKUP(Points!E66, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F66" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="F66" s="13">
         <f>VLOOKUP(Points!F66, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G66" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="G66" s="13">
         <f>VLOOKUP(Points!G66, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H66" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="H66" s="13">
         <f>VLOOKUP(Points!H66, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I66" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="I66" s="13">
         <f>VLOOKUP(Points!I66, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J66" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="J66" s="13">
         <f>VLOOKUP(Points!J66, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K66" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="K66" s="13">
         <f>VLOOKUP(Points!K66, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L66" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="L66" s="13">
         <f>VLOOKUP(Points!L66, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M66" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="M66" s="13">
         <f>VLOOKUP(Points!M66, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="e">
+      <c r="B67" s="13">
         <f>VLOOKUP(Points!B67, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C67" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="C67" s="13">
         <f>VLOOKUP(Points!C67, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D67" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="D67" s="13">
         <f>VLOOKUP(Points!D67, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="E67" s="13">
         <f>VLOOKUP(Points!E67, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F67" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="F67" s="13">
         <f>VLOOKUP(Points!F67, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G67" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="G67" s="13">
         <f>VLOOKUP(Points!G67, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H67" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="H67" s="13">
         <f>VLOOKUP(Points!H67, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I67" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="I67" s="13">
         <f>VLOOKUP(Points!I67, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J67" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="J67" s="13">
         <f>VLOOKUP(Points!J67, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K67" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="K67" s="13">
         <f>VLOOKUP(Points!K67, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L67" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="L67" s="13">
         <f>VLOOKUP(Points!L67, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M67" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="M67" s="13">
         <f>VLOOKUP(Points!M67, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="e">
+      <c r="B68" s="13">
         <f>VLOOKUP(Points!B68, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C68" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="C68" s="13">
         <f>VLOOKUP(Points!C68, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D68" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="D68" s="13">
         <f>VLOOKUP(Points!D68, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="E68" s="13">
         <f>VLOOKUP(Points!E68, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F68" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="F68" s="13">
         <f>VLOOKUP(Points!F68, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G68" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="G68" s="13">
         <f>VLOOKUP(Points!G68, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H68" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="H68" s="13">
         <f>VLOOKUP(Points!H68, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I68" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="I68" s="13">
         <f>VLOOKUP(Points!I68, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J68" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="J68" s="13">
         <f>VLOOKUP(Points!J68, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K68" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="K68" s="13">
         <f>VLOOKUP(Points!K68, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L68" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="L68" s="13">
         <f>VLOOKUP(Points!L68, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M68" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="M68" s="13">
         <f>VLOOKUP(Points!M68, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="e">
+      <c r="B69" s="13">
         <f>VLOOKUP(Points!B69, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C69" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="C69" s="13">
         <f>VLOOKUP(Points!C69, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D69" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="D69" s="13">
         <f>VLOOKUP(Points!D69, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="E69" s="13">
         <f>VLOOKUP(Points!E69, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F69" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="F69" s="13">
         <f>VLOOKUP(Points!F69, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G69" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="G69" s="13">
         <f>VLOOKUP(Points!G69, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H69" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="H69" s="13">
         <f>VLOOKUP(Points!H69, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I69" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="I69" s="13">
         <f>VLOOKUP(Points!I69, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J69" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="J69" s="13">
         <f>VLOOKUP(Points!J69, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K69" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="K69" s="13">
         <f>VLOOKUP(Points!K69, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L69" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="L69" s="13">
         <f>VLOOKUP(Points!L69, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M69" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="M69" s="13">
         <f>VLOOKUP(Points!M69, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="e">
+      <c r="B70" s="13">
         <f>VLOOKUP(Points!B70, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C70" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="C70" s="13">
         <f>VLOOKUP(Points!C70, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D70" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="D70" s="13">
         <f>VLOOKUP(Points!D70, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E70" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="E70" s="13">
         <f>VLOOKUP(Points!E70, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F70" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="F70" s="13">
         <f>VLOOKUP(Points!F70, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G70" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="G70" s="13">
         <f>VLOOKUP(Points!G70, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H70" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="H70" s="13">
         <f>VLOOKUP(Points!H70, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I70" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="I70" s="13">
         <f>VLOOKUP(Points!I70, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J70" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="J70" s="13">
         <f>VLOOKUP(Points!J70, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K70" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="K70" s="13">
         <f>VLOOKUP(Points!K70, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L70" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="L70" s="13">
         <f>VLOOKUP(Points!L70, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M70" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="M70" s="13">
         <f>VLOOKUP(Points!M70, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="e">
+      <c r="B71" s="13">
         <f>VLOOKUP(Points!B71, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C71" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="C71" s="13">
         <f>VLOOKUP(Points!C71, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D71" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="D71" s="13">
         <f>VLOOKUP(Points!D71, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E71" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="E71" s="13">
         <f>VLOOKUP(Points!E71, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F71" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="F71" s="13">
         <f>VLOOKUP(Points!F71, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G71" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="G71" s="13">
         <f>VLOOKUP(Points!G71, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H71" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="H71" s="13">
         <f>VLOOKUP(Points!H71, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I71" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="I71" s="13">
         <f>VLOOKUP(Points!I71, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J71" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="J71" s="13">
         <f>VLOOKUP(Points!J71, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K71" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="K71" s="13">
         <f>VLOOKUP(Points!K71, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L71" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="L71" s="13">
         <f>VLOOKUP(Points!L71, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M71" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="M71" s="13">
         <f>VLOOKUP(Points!M71, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="e">
+      <c r="B72" s="13">
         <f>VLOOKUP(Points!B72, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C72" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="C72" s="13">
         <f>VLOOKUP(Points!C72, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D72" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="D72" s="13">
         <f>VLOOKUP(Points!D72, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E72" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="E72" s="13">
         <f>VLOOKUP(Points!E72, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F72" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="F72" s="13">
         <f>VLOOKUP(Points!F72, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G72" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="G72" s="13">
         <f>VLOOKUP(Points!G72, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H72" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="H72" s="13">
         <f>VLOOKUP(Points!H72, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I72" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="I72" s="13">
         <f>VLOOKUP(Points!I72, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J72" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="J72" s="13">
         <f>VLOOKUP(Points!J72, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K72" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="K72" s="13">
         <f>VLOOKUP(Points!K72, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L72" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="L72" s="13">
         <f>VLOOKUP(Points!L72, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M72" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="M72" s="13">
         <f>VLOOKUP(Points!M72, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="13" t="e">
+      <c r="B73" s="13">
         <f>VLOOKUP(Points!B73, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C73" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="C73" s="13">
         <f>VLOOKUP(Points!C73, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D73" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="D73" s="13">
         <f>VLOOKUP(Points!D73, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E73" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="E73" s="13">
         <f>VLOOKUP(Points!E73, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F73" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="F73" s="13">
         <f>VLOOKUP(Points!F73, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G73" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="G73" s="13">
         <f>VLOOKUP(Points!G73, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H73" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="H73" s="13">
         <f>VLOOKUP(Points!H73, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I73" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="I73" s="13">
         <f>VLOOKUP(Points!I73, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J73" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="J73" s="13">
         <f>VLOOKUP(Points!J73, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K73" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="K73" s="13">
         <f>VLOOKUP(Points!K73, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L73" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="L73" s="13">
         <f>VLOOKUP(Points!L73, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M73" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="M73" s="13">
         <f>VLOOKUP(Points!M73, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="13" t="e">
+      <c r="B74" s="13">
         <f>VLOOKUP(Points!B74, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C74" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="C74" s="13">
         <f>VLOOKUP(Points!C74, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D74" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="D74" s="13">
         <f>VLOOKUP(Points!D74, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E74" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="E74" s="13">
         <f>VLOOKUP(Points!E74, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F74" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="F74" s="13">
         <f>VLOOKUP(Points!F74, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G74" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="G74" s="13">
         <f>VLOOKUP(Points!G74, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H74" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="H74" s="13">
         <f>VLOOKUP(Points!H74, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I74" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="I74" s="13">
         <f>VLOOKUP(Points!I74, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J74" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="J74" s="13">
         <f>VLOOKUP(Points!J74, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K74" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="K74" s="13">
         <f>VLOOKUP(Points!K74, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L74" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="L74" s="13">
         <f>VLOOKUP(Points!L74, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M74" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="M74" s="13">
         <f>VLOOKUP(Points!M74, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="13" t="e">
+      <c r="B75" s="13">
         <f>VLOOKUP(Points!B75, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C75" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="C75" s="13">
         <f>VLOOKUP(Points!C75, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D75" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="D75" s="13">
         <f>VLOOKUP(Points!D75, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E75" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="E75" s="13">
         <f>VLOOKUP(Points!E75, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F75" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="F75" s="13">
         <f>VLOOKUP(Points!F75, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G75" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="G75" s="13">
         <f>VLOOKUP(Points!G75, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H75" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="H75" s="13">
         <f>VLOOKUP(Points!H75, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I75" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="I75" s="13">
         <f>VLOOKUP(Points!I75, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J75" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="J75" s="13">
         <f>VLOOKUP(Points!J75, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K75" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="K75" s="13">
         <f>VLOOKUP(Points!K75, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L75" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="L75" s="13">
         <f>VLOOKUP(Points!L75, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M75" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="M75" s="13">
         <f>VLOOKUP(Points!M75, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="13" t="e">
+      <c r="B76" s="13">
         <f>VLOOKUP(Points!B76, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C76" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="C76" s="13">
         <f>VLOOKUP(Points!C76, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D76" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="D76" s="13">
         <f>VLOOKUP(Points!D76, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E76" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="E76" s="13">
         <f>VLOOKUP(Points!E76, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F76" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="F76" s="13">
         <f>VLOOKUP(Points!F76, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G76" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="G76" s="13">
         <f>VLOOKUP(Points!G76, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H76" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="H76" s="13">
         <f>VLOOKUP(Points!H76, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I76" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="I76" s="13">
         <f>VLOOKUP(Points!I76, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J76" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="J76" s="13">
         <f>VLOOKUP(Points!J76, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K76" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="K76" s="13">
         <f>VLOOKUP(Points!K76, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L76" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="L76" s="13">
         <f>VLOOKUP(Points!L76, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M76" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="M76" s="13">
         <f>VLOOKUP(Points!M76, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="13" t="e">
+      <c r="B77" s="13">
         <f>VLOOKUP(Points!B77, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C77" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="C77" s="13">
         <f>VLOOKUP(Points!C77, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D77" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="D77" s="13">
         <f>VLOOKUP(Points!D77, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E77" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="E77" s="13">
         <f>VLOOKUP(Points!E77, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F77" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="F77" s="13">
         <f>VLOOKUP(Points!F77, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G77" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="G77" s="13">
         <f>VLOOKUP(Points!G77, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H77" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="H77" s="13">
         <f>VLOOKUP(Points!H77, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I77" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="I77" s="13">
         <f>VLOOKUP(Points!I77, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J77" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="J77" s="13">
         <f>VLOOKUP(Points!J77, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K77" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="K77" s="13">
         <f>VLOOKUP(Points!K77, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L77" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="L77" s="13">
         <f>VLOOKUP(Points!L77, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M77" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="M77" s="13">
         <f>VLOOKUP(Points!M77, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="13" t="e">
+      <c r="B78" s="13">
         <f>VLOOKUP(Points!B78, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C78" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="C78" s="13">
         <f>VLOOKUP(Points!C78, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D78" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="D78" s="13">
         <f>VLOOKUP(Points!D78, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E78" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="E78" s="13">
         <f>VLOOKUP(Points!E78, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F78" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="F78" s="13">
         <f>VLOOKUP(Points!F78, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G78" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="G78" s="13">
         <f>VLOOKUP(Points!G78, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H78" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="H78" s="13">
         <f>VLOOKUP(Points!H78, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I78" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="I78" s="13">
         <f>VLOOKUP(Points!I78, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J78" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="J78" s="13">
         <f>VLOOKUP(Points!J78, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K78" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="K78" s="13">
         <f>VLOOKUP(Points!K78, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L78" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="L78" s="13">
         <f>VLOOKUP(Points!L78, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M78" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="M78" s="13">
         <f>VLOOKUP(Points!M78, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -12663,8 +14069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC1ED6A-776F-419D-ADB3-270D9D2AA9CB}">
   <dimension ref="B2:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12678,7 +14084,7 @@
       </c>
       <c r="C2" s="28">
         <f>AVERAGEIF(Placements!B2:M100, "&gt;0")</f>
-        <v>6.2750000000000004</v>
+        <v>6.2056277056277054</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -12737,51 +14143,51 @@
       </c>
       <c r="C6" s="24">
         <f>AVERAGEIF(Placements!B2:B100,"&gt;0")</f>
-        <v>5.0250000000000004</v>
+        <v>5.337662337662338</v>
       </c>
       <c r="D6" s="24">
         <f>AVERAGEIF(Placements!C2:C100,"&gt;0")</f>
-        <v>6.8250000000000002</v>
+        <v>6.4155844155844157</v>
       </c>
       <c r="E6" s="24">
         <f>AVERAGEIF(Placements!D2:D100,"&gt;0")</f>
-        <v>6.5</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="F6" s="24">
         <f>AVERAGEIF(Placements!E2:E100,"&gt;0")</f>
-        <v>6.625</v>
+        <v>6.2987012987012987</v>
       </c>
       <c r="G6" s="24">
         <f>AVERAGEIF(Placements!F2:F100,"&gt;0")</f>
-        <v>6.0750000000000002</v>
+        <v>5.7922077922077921</v>
       </c>
       <c r="H6" s="24">
         <f>AVERAGEIF(Placements!G2:G100,"&gt;0")</f>
-        <v>6.4249999999999998</v>
+        <v>6.4935064935064934</v>
       </c>
       <c r="I6" s="24">
         <f>AVERAGEIF(Placements!H2:H100,"&gt;0")</f>
-        <v>6.4749999999999996</v>
+        <v>6.1688311688311686</v>
       </c>
       <c r="J6" s="24">
         <f>AVERAGEIF(Placements!I2:I100,"&gt;0")</f>
-        <v>5.4</v>
+        <v>6.0389610389610393</v>
       </c>
       <c r="K6" s="24">
         <f>AVERAGEIF(Placements!J2:J100,"&gt;0")</f>
-        <v>6.1749999999999998</v>
+        <v>6.0779220779220777</v>
       </c>
       <c r="L6" s="24">
         <f>AVERAGEIF(Placements!K2:K100,"&gt;0")</f>
-        <v>6.9249999999999998</v>
+        <v>6.5194805194805197</v>
       </c>
       <c r="M6" s="24">
         <f>AVERAGEIF(Placements!L2:L100,"&gt;0")</f>
-        <v>6.75</v>
+        <v>6.5844155844155843</v>
       </c>
       <c r="N6" s="25">
         <f>AVERAGEIF(Placements!M2:M100,"&gt;0")</f>
-        <v>6.1</v>
+        <v>6.3116883116883118</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -12790,51 +14196,51 @@
       </c>
       <c r="C7" s="24">
         <f>AVERAGEIF(Points!B2:B105, "&gt;0")</f>
-        <v>8.5</v>
+        <v>8.1948051948051948</v>
       </c>
       <c r="D7" s="24">
         <f>AVERAGEIF(Points!C2:C105, "&gt;0")</f>
-        <v>6.3</v>
+        <v>6.8441558441558445</v>
       </c>
       <c r="E7" s="24">
         <f>AVERAGEIF(Points!D2:D105, "&gt;0")</f>
-        <v>6.95</v>
+        <v>7.0389610389610393</v>
       </c>
       <c r="F7" s="24">
         <f>AVERAGEIF(Points!E2:E105, "&gt;0")</f>
-        <v>6.95</v>
+        <v>7.1818181818181817</v>
       </c>
       <c r="G7" s="24">
         <f>AVERAGEIF(Points!F2:F105, "&gt;0")</f>
-        <v>7.15</v>
+        <v>7.5714285714285712</v>
       </c>
       <c r="H7" s="24">
         <f>AVERAGEIF(Points!G2:G105, "&gt;0")</f>
-        <v>6.85</v>
+        <v>6.779220779220779</v>
       </c>
       <c r="I7" s="24">
         <f>AVERAGEIF(Points!H2:H105, "&gt;0")</f>
-        <v>6.7249999999999996</v>
+        <v>7.116883116883117</v>
       </c>
       <c r="J7" s="24">
         <f>AVERAGEIF(Points!I2:I105, "&gt;0")</f>
-        <v>8.1</v>
+        <v>7.2597402597402594</v>
       </c>
       <c r="K7" s="24">
         <f>AVERAGEIF(Points!J2:J105, "&gt;0")</f>
-        <v>7.25</v>
+        <v>7.2857142857142856</v>
       </c>
       <c r="L7" s="24">
         <f>AVERAGEIF(Points!K2:K105, "&gt;0")</f>
-        <v>6.2249999999999996</v>
+        <v>6.7532467532467528</v>
       </c>
       <c r="M7" s="24">
         <f>AVERAGEIF(Points!L2:L105, "&gt;0")</f>
-        <v>6.55</v>
+        <v>6.7012987012987013</v>
       </c>
       <c r="N7" s="25">
         <f>AVERAGEIF(Points!M2:M105, "&gt;0")</f>
-        <v>7.15</v>
+        <v>7.0259740259740262</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -12843,51 +14249,51 @@
       </c>
       <c r="C8" s="26">
         <f>AVERAGEIF(RunningTotals!B2:B100, "&gt;0")</f>
-        <v>8.5</v>
+        <v>8.1948051948051948</v>
       </c>
       <c r="D8" s="26">
         <f>AVERAGEIF(RunningTotals!C2:C100, "&gt;0")</f>
-        <v>14.8</v>
+        <v>15.038961038961039</v>
       </c>
       <c r="E8" s="26">
         <f>AVERAGEIF(RunningTotals!D2:D100, "&gt;0")</f>
-        <v>21.75</v>
+        <v>22.077922077922079</v>
       </c>
       <c r="F8" s="26">
         <f>AVERAGEIF(RunningTotals!E2:E100, "&gt;0")</f>
-        <v>28.7</v>
+        <v>29.259740259740258</v>
       </c>
       <c r="G8" s="26">
         <f>AVERAGEIF(RunningTotals!F2:F100, "&gt;0")</f>
-        <v>35.85</v>
+        <v>36.831168831168831</v>
       </c>
       <c r="H8" s="26">
         <f>AVERAGEIF(RunningTotals!G2:G100, "&gt;0")</f>
-        <v>42.475000000000001</v>
+        <v>43.493506493506494</v>
       </c>
       <c r="I8" s="26">
         <f>AVERAGEIF(RunningTotals!H2:H100, "&gt;0")</f>
-        <v>49.25</v>
+        <v>50.636363636363633</v>
       </c>
       <c r="J8" s="26">
         <f>AVERAGEIF(RunningTotals!I2:I100, "&gt;0")</f>
-        <v>57.274999999999999</v>
+        <v>57.857142857142854</v>
       </c>
       <c r="K8" s="26">
         <f>AVERAGEIF(RunningTotals!J2:J100, "&gt;0")</f>
-        <v>64.474999999999994</v>
+        <v>65.116883116883116</v>
       </c>
       <c r="L8" s="26">
         <f>AVERAGEIF(RunningTotals!K2:K100, "&gt;0")</f>
-        <v>70.825000000000003</v>
+        <v>71.935064935064929</v>
       </c>
       <c r="M8" s="26">
         <f>AVERAGEIF(RunningTotals!L2:L100, "&gt;0")</f>
-        <v>77.375</v>
+        <v>78.63636363636364</v>
       </c>
       <c r="N8" s="27">
         <f>AVERAGEIF(RunningTotals!M2:M100, "&gt;0")</f>
-        <v>84.525000000000006</v>
+        <v>85.662337662337663</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -12935,51 +14341,51 @@
       <c r="B11" s="4"/>
       <c r="C11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, C10)</f>
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="D11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, D10)</f>
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, E10)</f>
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="F11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, F10)</f>
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, G10)</f>
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="H11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, H10)</f>
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, I10)</f>
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="J11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, J10)</f>
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="K11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, K10)</f>
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="L11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, L10)</f>
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="M11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, M10)</f>
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="N11" s="5">
         <f>COUNTIF(Placements!$B$2:$M$100, N10)</f>
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/projects/mogiData/MogiData.xlsx
+++ b/projects/mogiData/MogiData.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeldi\Desktop\UNI\Code\WebPortfolio\projects\mogiData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74344C77-BE44-4CF9-8D85-4D4D3044344F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17317304-FBE7-4202-AC84-049B40E985CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BDC4AD27-0A95-4AAB-A809-85FB1C2C1D7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{BDC4AD27-0A95-4AAB-A809-85FB1C2C1D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="RunningTotals" sheetId="1" r:id="rId1"/>
-    <sheet name="Points" sheetId="3" r:id="rId2"/>
-    <sheet name="Placements" sheetId="4" r:id="rId3"/>
-    <sheet name="Pos-Pts" sheetId="2" r:id="rId4"/>
-    <sheet name="DerivedData" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Points" sheetId="3" r:id="rId3"/>
+    <sheet name="Placements" sheetId="4" r:id="rId4"/>
+    <sheet name="Pos-Pts" sheetId="2" r:id="rId5"/>
+    <sheet name="DerivedData" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Position</t>
   </si>
@@ -70,6 +71,12 @@
   </si>
   <si>
     <t>Total of Placements</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -242,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -273,6 +280,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9597BB98-F4BC-4F46-B7BA-AB647A906BAD}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="111" workbookViewId="0">
-      <selection activeCell="K82" sqref="K82"/>
+    <sheetView topLeftCell="A83" zoomScale="111" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,16 +3597,822 @@
         <v>57</v>
       </c>
     </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="13">
+        <v>7</v>
+      </c>
+      <c r="C79" s="13">
+        <v>17</v>
+      </c>
+      <c r="D79" s="13">
+        <v>21</v>
+      </c>
+      <c r="E79" s="13">
+        <v>30</v>
+      </c>
+      <c r="F79" s="13">
+        <v>38</v>
+      </c>
+      <c r="G79" s="13">
+        <v>41</v>
+      </c>
+      <c r="H79" s="13">
+        <v>48</v>
+      </c>
+      <c r="I79" s="13">
+        <v>58</v>
+      </c>
+      <c r="J79" s="13">
+        <v>66</v>
+      </c>
+      <c r="K79" s="13">
+        <v>74</v>
+      </c>
+      <c r="L79" s="13">
+        <v>82</v>
+      </c>
+      <c r="M79" s="14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="13">
+        <v>8</v>
+      </c>
+      <c r="C80" s="13">
+        <v>12</v>
+      </c>
+      <c r="D80" s="13">
+        <v>24</v>
+      </c>
+      <c r="E80" s="13">
+        <v>39</v>
+      </c>
+      <c r="F80" s="13">
+        <v>47</v>
+      </c>
+      <c r="G80" s="13">
+        <v>50</v>
+      </c>
+      <c r="H80" s="13">
+        <v>60</v>
+      </c>
+      <c r="I80" s="13">
+        <v>65</v>
+      </c>
+      <c r="J80" s="13">
+        <v>77</v>
+      </c>
+      <c r="K80" s="13">
+        <v>79</v>
+      </c>
+      <c r="L80" s="13">
+        <v>91</v>
+      </c>
+      <c r="M80" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="13">
+        <v>7</v>
+      </c>
+      <c r="C81" s="13">
+        <v>8</v>
+      </c>
+      <c r="D81" s="13">
+        <v>12</v>
+      </c>
+      <c r="E81" s="13">
+        <v>22</v>
+      </c>
+      <c r="F81" s="13">
+        <v>37</v>
+      </c>
+      <c r="G81" s="13">
+        <v>42</v>
+      </c>
+      <c r="H81" s="13">
+        <v>47</v>
+      </c>
+      <c r="I81" s="13">
+        <v>56</v>
+      </c>
+      <c r="J81" s="13">
+        <v>64</v>
+      </c>
+      <c r="K81" s="13">
+        <v>69</v>
+      </c>
+      <c r="L81" s="13">
+        <v>79</v>
+      </c>
+      <c r="M81" s="14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="13">
+        <v>10</v>
+      </c>
+      <c r="C82" s="13">
+        <v>15</v>
+      </c>
+      <c r="D82" s="13">
+        <v>17</v>
+      </c>
+      <c r="E82" s="13">
+        <v>26</v>
+      </c>
+      <c r="F82" s="13">
+        <v>32</v>
+      </c>
+      <c r="G82" s="13">
+        <v>39</v>
+      </c>
+      <c r="H82" s="13">
+        <v>54</v>
+      </c>
+      <c r="I82" s="13">
+        <v>60</v>
+      </c>
+      <c r="J82" s="13">
+        <v>67</v>
+      </c>
+      <c r="K82" s="13">
+        <v>76</v>
+      </c>
+      <c r="L82" s="13">
+        <v>84</v>
+      </c>
+      <c r="M82" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="13">
+        <v>3</v>
+      </c>
+      <c r="C83" s="13">
+        <v>12</v>
+      </c>
+      <c r="D83" s="13">
+        <v>20</v>
+      </c>
+      <c r="E83" s="13">
+        <v>23</v>
+      </c>
+      <c r="F83" s="13">
+        <v>33</v>
+      </c>
+      <c r="G83" s="13">
+        <v>39</v>
+      </c>
+      <c r="H83" s="13">
+        <v>54</v>
+      </c>
+      <c r="I83" s="13">
+        <v>58</v>
+      </c>
+      <c r="J83" s="13">
+        <v>63</v>
+      </c>
+      <c r="K83" s="13">
+        <v>75</v>
+      </c>
+      <c r="L83" s="13">
+        <v>90</v>
+      </c>
+      <c r="M83" s="14">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="13">
+        <v>6</v>
+      </c>
+      <c r="C84" s="13">
+        <v>13</v>
+      </c>
+      <c r="D84" s="13">
+        <v>20</v>
+      </c>
+      <c r="E84" s="13">
+        <v>24</v>
+      </c>
+      <c r="F84" s="13">
+        <v>30</v>
+      </c>
+      <c r="G84" s="13">
+        <v>42</v>
+      </c>
+      <c r="H84" s="13">
+        <v>43</v>
+      </c>
+      <c r="I84" s="13">
+        <v>55</v>
+      </c>
+      <c r="J84" s="13">
+        <v>60</v>
+      </c>
+      <c r="K84" s="13">
+        <v>67</v>
+      </c>
+      <c r="L84" s="13">
+        <v>72</v>
+      </c>
+      <c r="M84" s="14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="13">
+        <v>4</v>
+      </c>
+      <c r="C85" s="13">
+        <v>19</v>
+      </c>
+      <c r="D85" s="13">
+        <v>22</v>
+      </c>
+      <c r="E85" s="13">
+        <v>27</v>
+      </c>
+      <c r="F85" s="13">
+        <v>31</v>
+      </c>
+      <c r="G85" s="13">
+        <v>46</v>
+      </c>
+      <c r="H85" s="13">
+        <v>61</v>
+      </c>
+      <c r="I85" s="13">
+        <v>76</v>
+      </c>
+      <c r="J85" s="13">
+        <v>91</v>
+      </c>
+      <c r="K85" s="13">
+        <v>95</v>
+      </c>
+      <c r="L85" s="13">
+        <v>102</v>
+      </c>
+      <c r="M85" s="14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="13">
+        <v>3</v>
+      </c>
+      <c r="C86" s="13">
+        <v>10</v>
+      </c>
+      <c r="D86" s="13">
+        <v>14</v>
+      </c>
+      <c r="E86" s="13">
+        <v>24</v>
+      </c>
+      <c r="F86" s="13">
+        <v>27</v>
+      </c>
+      <c r="G86" s="13">
+        <v>37</v>
+      </c>
+      <c r="H86" s="13">
+        <v>43</v>
+      </c>
+      <c r="I86" s="13">
+        <v>48</v>
+      </c>
+      <c r="J86" s="13">
+        <v>54</v>
+      </c>
+      <c r="K86" s="13">
+        <v>57</v>
+      </c>
+      <c r="L86" s="13">
+        <v>59</v>
+      </c>
+      <c r="M86" s="13">
+        <v>71</v>
+      </c>
+      <c r="N86" s="31"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="13">
+        <v>6</v>
+      </c>
+      <c r="C87" s="13">
+        <v>11</v>
+      </c>
+      <c r="D87" s="13">
+        <v>20</v>
+      </c>
+      <c r="E87" s="13">
+        <v>32</v>
+      </c>
+      <c r="F87" s="13">
+        <v>37</v>
+      </c>
+      <c r="G87" s="13">
+        <v>49</v>
+      </c>
+      <c r="H87" s="13">
+        <v>53</v>
+      </c>
+      <c r="I87" s="13">
+        <v>55</v>
+      </c>
+      <c r="J87" s="13">
+        <v>70</v>
+      </c>
+      <c r="K87" s="13">
+        <v>77</v>
+      </c>
+      <c r="L87" s="13">
+        <v>81</v>
+      </c>
+      <c r="M87" s="14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="13">
+        <v>3</v>
+      </c>
+      <c r="C88" s="13">
+        <v>15</v>
+      </c>
+      <c r="D88" s="13">
+        <v>23</v>
+      </c>
+      <c r="E88" s="13">
+        <v>30</v>
+      </c>
+      <c r="F88" s="13">
+        <v>45</v>
+      </c>
+      <c r="G88" s="13">
+        <v>47</v>
+      </c>
+      <c r="H88" s="13">
+        <v>50</v>
+      </c>
+      <c r="I88" s="13">
+        <v>60</v>
+      </c>
+      <c r="J88" s="13">
+        <v>63</v>
+      </c>
+      <c r="K88" s="13">
+        <v>67</v>
+      </c>
+      <c r="L88" s="13">
+        <v>74</v>
+      </c>
+      <c r="M88" s="14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="13">
+        <v>3</v>
+      </c>
+      <c r="C89" s="13">
+        <v>7</v>
+      </c>
+      <c r="D89" s="13">
+        <v>17</v>
+      </c>
+      <c r="E89" s="13">
+        <v>21</v>
+      </c>
+      <c r="F89" s="13">
+        <v>33</v>
+      </c>
+      <c r="G89" s="13">
+        <v>43</v>
+      </c>
+      <c r="H89" s="13">
+        <v>48</v>
+      </c>
+      <c r="I89" s="13">
+        <v>53</v>
+      </c>
+      <c r="J89" s="13">
+        <v>61</v>
+      </c>
+      <c r="K89" s="13">
+        <v>64</v>
+      </c>
+      <c r="L89" s="13">
+        <v>66</v>
+      </c>
+      <c r="M89" s="14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="13">
+        <v>10</v>
+      </c>
+      <c r="C90" s="13">
+        <v>18</v>
+      </c>
+      <c r="D90" s="13">
+        <v>23</v>
+      </c>
+      <c r="E90" s="13">
+        <v>26</v>
+      </c>
+      <c r="F90" s="13">
+        <v>36</v>
+      </c>
+      <c r="G90" s="13">
+        <v>46</v>
+      </c>
+      <c r="H90" s="13">
+        <v>53</v>
+      </c>
+      <c r="I90" s="13">
+        <v>55</v>
+      </c>
+      <c r="J90" s="13">
+        <v>57</v>
+      </c>
+      <c r="K90" s="13">
+        <v>59</v>
+      </c>
+      <c r="L90" s="13">
+        <v>69</v>
+      </c>
+      <c r="M90" s="14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="13">
+        <v>4</v>
+      </c>
+      <c r="C91" s="13">
+        <v>13</v>
+      </c>
+      <c r="D91" s="13">
+        <v>17</v>
+      </c>
+      <c r="E91" s="13">
+        <v>29</v>
+      </c>
+      <c r="F91" s="13">
+        <v>37</v>
+      </c>
+      <c r="G91" s="13">
+        <v>39</v>
+      </c>
+      <c r="H91" s="13">
+        <v>51</v>
+      </c>
+      <c r="I91" s="13">
+        <v>55</v>
+      </c>
+      <c r="J91" s="13">
+        <v>63</v>
+      </c>
+      <c r="K91" s="13">
+        <v>72</v>
+      </c>
+      <c r="L91" s="13">
+        <v>73</v>
+      </c>
+      <c r="M91" s="14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="13">
+        <v>5</v>
+      </c>
+      <c r="C92" s="13">
+        <v>13</v>
+      </c>
+      <c r="D92" s="13">
+        <v>15</v>
+      </c>
+      <c r="E92" s="13">
+        <v>22</v>
+      </c>
+      <c r="F92" s="13">
+        <v>23</v>
+      </c>
+      <c r="G92" s="13">
+        <v>35</v>
+      </c>
+      <c r="H92" s="13">
+        <v>45</v>
+      </c>
+      <c r="I92" s="13">
+        <v>54</v>
+      </c>
+      <c r="J92" s="13">
+        <v>62</v>
+      </c>
+      <c r="K92" s="13">
+        <v>69</v>
+      </c>
+      <c r="L92" s="13">
+        <v>75</v>
+      </c>
+      <c r="M92" s="14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="13">
+        <v>6</v>
+      </c>
+      <c r="C93" s="13">
+        <v>12</v>
+      </c>
+      <c r="D93" s="13">
+        <v>17</v>
+      </c>
+      <c r="E93" s="13">
+        <v>22</v>
+      </c>
+      <c r="F93" s="13">
+        <v>28</v>
+      </c>
+      <c r="G93" s="13">
+        <v>30</v>
+      </c>
+      <c r="H93" s="13">
+        <v>33</v>
+      </c>
+      <c r="I93" s="13">
+        <v>37</v>
+      </c>
+      <c r="J93" s="13">
+        <v>43</v>
+      </c>
+      <c r="K93" s="13">
+        <v>45</v>
+      </c>
+      <c r="L93" s="13">
+        <v>55</v>
+      </c>
+      <c r="M93" s="14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="13">
+        <v>5</v>
+      </c>
+      <c r="C94" s="13">
+        <v>11</v>
+      </c>
+      <c r="D94" s="13">
+        <v>16</v>
+      </c>
+      <c r="E94" s="13">
+        <v>28</v>
+      </c>
+      <c r="F94" s="13">
+        <v>34</v>
+      </c>
+      <c r="G94" s="13">
+        <v>40</v>
+      </c>
+      <c r="H94" s="13">
+        <v>52</v>
+      </c>
+      <c r="I94" s="13">
+        <v>59</v>
+      </c>
+      <c r="J94" s="13">
+        <v>61</v>
+      </c>
+      <c r="K94" s="13">
+        <v>68</v>
+      </c>
+      <c r="L94" s="13">
+        <v>71</v>
+      </c>
+      <c r="M94" s="14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="13">
+        <v>7</v>
+      </c>
+      <c r="C95" s="13">
+        <v>17</v>
+      </c>
+      <c r="D95" s="13">
+        <v>19</v>
+      </c>
+      <c r="E95" s="13">
+        <v>34</v>
+      </c>
+      <c r="F95" s="13">
+        <v>46</v>
+      </c>
+      <c r="G95" s="13">
+        <v>55</v>
+      </c>
+      <c r="H95" s="13">
+        <v>64</v>
+      </c>
+      <c r="I95" s="13">
+        <v>72</v>
+      </c>
+      <c r="J95" s="13">
+        <v>73</v>
+      </c>
+      <c r="K95" s="13">
+        <v>83</v>
+      </c>
+      <c r="L95" s="13">
+        <v>95</v>
+      </c>
+      <c r="M95" s="14">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A46E495-7232-4EFD-8866-620E76ECCA72}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="30">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30">
+        <v>8</v>
+      </c>
+      <c r="J1" s="30">
+        <v>9</v>
+      </c>
+      <c r="K1" s="30">
+        <v>10</v>
+      </c>
+      <c r="L1" s="30">
+        <v>11</v>
+      </c>
+      <c r="M1" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <f>_xlfn.STDEV.P(RunningTotals!B2:B78)</f>
+        <v>4.1216531831354919</v>
+      </c>
+      <c r="C2">
+        <f>_xlfn.STDEV.P(RunningTotals!C2:C78)</f>
+        <v>5.3438678497774097</v>
+      </c>
+      <c r="D2">
+        <f>_xlfn.STDEV.P(RunningTotals!D2:D78)</f>
+        <v>7.1346351734943827</v>
+      </c>
+      <c r="E2">
+        <f>_xlfn.STDEV.P(RunningTotals!E2:E78)</f>
+        <v>9.0358630308208951</v>
+      </c>
+      <c r="F2">
+        <f>_xlfn.STDEV.P(RunningTotals!F2:F78)</f>
+        <v>9.4503522883590669</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.STDEV.P(RunningTotals!G2:G78)</f>
+        <v>9.8832448751887583</v>
+      </c>
+      <c r="H2">
+        <f>_xlfn.STDEV.P(RunningTotals!H2:H78)</f>
+        <v>11.298671443459586</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.STDEV.P(RunningTotals!I2:I78)</f>
+        <v>10.91610782369581</v>
+      </c>
+      <c r="J2">
+        <f>_xlfn.STDEV.P(RunningTotals!J2:J78)</f>
+        <v>11.879234338409939</v>
+      </c>
+      <c r="K2">
+        <f>_xlfn.STDEV.P(RunningTotals!K2:K78)</f>
+        <v>13.318610806948008</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.P(RunningTotals!L2:L78)</f>
+        <v>14.267308095199773</v>
+      </c>
+      <c r="M2">
+        <f>_xlfn.STDEV.P(RunningTotals!M2:M78)</f>
+        <v>15.563535796321695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE(RunningTotals!B2:B78)</f>
+        <v>8.1948051948051948</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(RunningTotals!C2:C78)</f>
+        <v>15.038961038961039</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(RunningTotals!D2:D78)</f>
+        <v>22.077922077922079</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(RunningTotals!E2:E78)</f>
+        <v>29.259740259740258</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(RunningTotals!F2:F78)</f>
+        <v>36.831168831168831</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(RunningTotals!G2:G78)</f>
+        <v>43.493506493506494</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(RunningTotals!H2:H78)</f>
+        <v>50.636363636363633</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(RunningTotals!I2:I78)</f>
+        <v>57.857142857142854</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(RunningTotals!J2:J78)</f>
+        <v>65.116883116883116</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(RunningTotals!K2:K78)</f>
+        <v>71.935064935064929</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(RunningTotals!L2:L78)</f>
+        <v>78.63636363636364</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE(RunningTotals!M2:M78)</f>
+        <v>85.662337662337663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BDB125-30B3-484D-B3F3-263CDA5CE880}">
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="121" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScale="121" workbookViewId="0">
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
@@ -7503,851 +8318,851 @@
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="13">
         <f>RunningTotals!B79-RunningTotals!A79</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C79" s="13">
         <f>RunningTotals!C79-RunningTotals!B79</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D79" s="13">
         <f>RunningTotals!D79-RunningTotals!C79</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E79" s="13">
         <f>RunningTotals!E79-RunningTotals!D79</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F79" s="13">
         <f>RunningTotals!F79-RunningTotals!E79</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G79" s="13">
         <f>RunningTotals!G79-RunningTotals!F79</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79" s="13">
         <f>RunningTotals!H79-RunningTotals!G79</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I79" s="13">
         <f>RunningTotals!I79-RunningTotals!H79</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J79" s="13">
         <f>RunningTotals!J79-RunningTotals!I79</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K79" s="13">
         <f>RunningTotals!K79-RunningTotals!J79</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L79" s="13">
         <f>RunningTotals!L79-RunningTotals!K79</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M79" s="14">
         <f>RunningTotals!M79-RunningTotals!L79</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="13">
         <f>RunningTotals!B80-RunningTotals!A80</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C80" s="13">
         <f>RunningTotals!C80-RunningTotals!B80</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D80" s="13">
         <f>RunningTotals!D80-RunningTotals!C80</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E80" s="13">
         <f>RunningTotals!E80-RunningTotals!D80</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F80" s="13">
         <f>RunningTotals!F80-RunningTotals!E80</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G80" s="13">
         <f>RunningTotals!G80-RunningTotals!F80</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80" s="13">
         <f>RunningTotals!H80-RunningTotals!G80</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I80" s="13">
         <f>RunningTotals!I80-RunningTotals!H80</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J80" s="13">
         <f>RunningTotals!J80-RunningTotals!I80</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K80" s="13">
         <f>RunningTotals!K80-RunningTotals!J80</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L80" s="13">
         <f>RunningTotals!L80-RunningTotals!K80</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M80" s="14">
         <f>RunningTotals!M80-RunningTotals!L80</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="13">
         <f>RunningTotals!B81-RunningTotals!A81</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C81" s="13">
         <f>RunningTotals!C81-RunningTotals!B81</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="13">
         <f>RunningTotals!D81-RunningTotals!C81</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E81" s="13">
         <f>RunningTotals!E81-RunningTotals!D81</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F81" s="13">
         <f>RunningTotals!F81-RunningTotals!E81</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G81" s="13">
         <f>RunningTotals!G81-RunningTotals!F81</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H81" s="13">
         <f>RunningTotals!H81-RunningTotals!G81</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I81" s="13">
         <f>RunningTotals!I81-RunningTotals!H81</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J81" s="13">
         <f>RunningTotals!J81-RunningTotals!I81</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K81" s="13">
         <f>RunningTotals!K81-RunningTotals!J81</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L81" s="13">
         <f>RunningTotals!L81-RunningTotals!K81</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M81" s="14">
         <f>RunningTotals!M81-RunningTotals!L81</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="13">
         <f>RunningTotals!B82-RunningTotals!A82</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C82" s="13">
         <f>RunningTotals!C82-RunningTotals!B82</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D82" s="13">
         <f>RunningTotals!D82-RunningTotals!C82</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E82" s="13">
         <f>RunningTotals!E82-RunningTotals!D82</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F82" s="13">
         <f>RunningTotals!F82-RunningTotals!E82</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G82" s="13">
         <f>RunningTotals!G82-RunningTotals!F82</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H82" s="13">
         <f>RunningTotals!H82-RunningTotals!G82</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I82" s="13">
         <f>RunningTotals!I82-RunningTotals!H82</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J82" s="13">
         <f>RunningTotals!J82-RunningTotals!I82</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K82" s="13">
         <f>RunningTotals!K82-RunningTotals!J82</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L82" s="13">
         <f>RunningTotals!L82-RunningTotals!K82</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M82" s="14">
         <f>RunningTotals!M82-RunningTotals!L82</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="13">
         <f>RunningTotals!B83-RunningTotals!A83</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C83" s="13">
         <f>RunningTotals!C83-RunningTotals!B83</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D83" s="13">
         <f>RunningTotals!D83-RunningTotals!C83</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E83" s="13">
         <f>RunningTotals!E83-RunningTotals!D83</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F83" s="13">
         <f>RunningTotals!F83-RunningTotals!E83</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G83" s="13">
         <f>RunningTotals!G83-RunningTotals!F83</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H83" s="13">
         <f>RunningTotals!H83-RunningTotals!G83</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I83" s="13">
         <f>RunningTotals!I83-RunningTotals!H83</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J83" s="13">
         <f>RunningTotals!J83-RunningTotals!I83</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K83" s="13">
         <f>RunningTotals!K83-RunningTotals!J83</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L83" s="13">
         <f>RunningTotals!L83-RunningTotals!K83</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M83" s="14">
         <f>RunningTotals!M83-RunningTotals!L83</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="13">
         <f>RunningTotals!B84-RunningTotals!A84</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C84" s="13">
         <f>RunningTotals!C84-RunningTotals!B84</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D84" s="13">
         <f>RunningTotals!D84-RunningTotals!C84</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E84" s="13">
         <f>RunningTotals!E84-RunningTotals!D84</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F84" s="13">
         <f>RunningTotals!F84-RunningTotals!E84</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G84" s="13">
         <f>RunningTotals!G84-RunningTotals!F84</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H84" s="13">
         <f>RunningTotals!H84-RunningTotals!G84</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="13">
         <f>RunningTotals!I84-RunningTotals!H84</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J84" s="13">
         <f>RunningTotals!J84-RunningTotals!I84</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K84" s="13">
         <f>RunningTotals!K84-RunningTotals!J84</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L84" s="13">
         <f>RunningTotals!L84-RunningTotals!K84</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M84" s="14">
         <f>RunningTotals!M84-RunningTotals!L84</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="13">
         <f>RunningTotals!B85-RunningTotals!A85</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C85" s="13">
         <f>RunningTotals!C85-RunningTotals!B85</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D85" s="13">
         <f>RunningTotals!D85-RunningTotals!C85</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E85" s="13">
         <f>RunningTotals!E85-RunningTotals!D85</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F85" s="13">
         <f>RunningTotals!F85-RunningTotals!E85</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G85" s="13">
         <f>RunningTotals!G85-RunningTotals!F85</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H85" s="13">
         <f>RunningTotals!H85-RunningTotals!G85</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I85" s="13">
         <f>RunningTotals!I85-RunningTotals!H85</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J85" s="13">
         <f>RunningTotals!J85-RunningTotals!I85</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K85" s="13">
         <f>RunningTotals!K85-RunningTotals!J85</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L85" s="13">
         <f>RunningTotals!L85-RunningTotals!K85</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M85" s="14">
         <f>RunningTotals!M85-RunningTotals!L85</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="13">
         <f>RunningTotals!B86-RunningTotals!A86</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C86" s="13">
         <f>RunningTotals!C86-RunningTotals!B86</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D86" s="13">
         <f>RunningTotals!D86-RunningTotals!C86</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E86" s="13">
         <f>RunningTotals!E86-RunningTotals!D86</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F86" s="13">
         <f>RunningTotals!F86-RunningTotals!E86</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G86" s="13">
         <f>RunningTotals!G86-RunningTotals!F86</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H86" s="13">
         <f>RunningTotals!H86-RunningTotals!G86</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I86" s="13">
         <f>RunningTotals!I86-RunningTotals!H86</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J86" s="13">
         <f>RunningTotals!J86-RunningTotals!I86</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K86" s="13">
         <f>RunningTotals!K86-RunningTotals!J86</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L86" s="13">
         <f>RunningTotals!L86-RunningTotals!K86</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M86" s="14">
         <f>RunningTotals!M86-RunningTotals!L86</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="13">
         <f>RunningTotals!B87-RunningTotals!A87</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C87" s="13">
         <f>RunningTotals!C87-RunningTotals!B87</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D87" s="13">
         <f>RunningTotals!D87-RunningTotals!C87</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E87" s="13">
         <f>RunningTotals!E87-RunningTotals!D87</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F87" s="13">
         <f>RunningTotals!F87-RunningTotals!E87</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G87" s="13">
         <f>RunningTotals!G87-RunningTotals!F87</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H87" s="13">
         <f>RunningTotals!H87-RunningTotals!G87</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I87" s="13">
         <f>RunningTotals!I87-RunningTotals!H87</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" s="13">
         <f>RunningTotals!J87-RunningTotals!I87</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K87" s="13">
         <f>RunningTotals!K87-RunningTotals!J87</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L87" s="13">
         <f>RunningTotals!L87-RunningTotals!K87</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M87" s="14">
         <f>RunningTotals!M87-RunningTotals!L87</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="13">
         <f>RunningTotals!B88-RunningTotals!A88</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C88" s="13">
         <f>RunningTotals!C88-RunningTotals!B88</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D88" s="13">
         <f>RunningTotals!D88-RunningTotals!C88</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E88" s="13">
         <f>RunningTotals!E88-RunningTotals!D88</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F88" s="13">
         <f>RunningTotals!F88-RunningTotals!E88</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G88" s="13">
         <f>RunningTotals!G88-RunningTotals!F88</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88" s="13">
         <f>RunningTotals!H88-RunningTotals!G88</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I88" s="13">
         <f>RunningTotals!I88-RunningTotals!H88</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J88" s="13">
         <f>RunningTotals!J88-RunningTotals!I88</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K88" s="13">
         <f>RunningTotals!K88-RunningTotals!J88</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L88" s="13">
         <f>RunningTotals!L88-RunningTotals!K88</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M88" s="14">
         <f>RunningTotals!M88-RunningTotals!L88</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="13">
         <f>RunningTotals!B89-RunningTotals!A89</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C89" s="13">
         <f>RunningTotals!C89-RunningTotals!B89</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D89" s="13">
         <f>RunningTotals!D89-RunningTotals!C89</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E89" s="13">
         <f>RunningTotals!E89-RunningTotals!D89</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F89" s="13">
         <f>RunningTotals!F89-RunningTotals!E89</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G89" s="13">
         <f>RunningTotals!G89-RunningTotals!F89</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H89" s="13">
         <f>RunningTotals!H89-RunningTotals!G89</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I89" s="13">
         <f>RunningTotals!I89-RunningTotals!H89</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J89" s="13">
         <f>RunningTotals!J89-RunningTotals!I89</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K89" s="13">
         <f>RunningTotals!K89-RunningTotals!J89</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L89" s="13">
         <f>RunningTotals!L89-RunningTotals!K89</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M89" s="14">
         <f>RunningTotals!M89-RunningTotals!L89</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="13">
         <f>RunningTotals!B90-RunningTotals!A90</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C90" s="13">
         <f>RunningTotals!C90-RunningTotals!B90</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D90" s="13">
         <f>RunningTotals!D90-RunningTotals!C90</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E90" s="13">
         <f>RunningTotals!E90-RunningTotals!D90</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F90" s="13">
         <f>RunningTotals!F90-RunningTotals!E90</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G90" s="13">
         <f>RunningTotals!G90-RunningTotals!F90</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H90" s="13">
         <f>RunningTotals!H90-RunningTotals!G90</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I90" s="13">
         <f>RunningTotals!I90-RunningTotals!H90</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" s="13">
         <f>RunningTotals!J90-RunningTotals!I90</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K90" s="13">
         <f>RunningTotals!K90-RunningTotals!J90</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L90" s="13">
         <f>RunningTotals!L90-RunningTotals!K90</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M90" s="14">
         <f>RunningTotals!M90-RunningTotals!L90</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="13">
         <f>RunningTotals!B91-RunningTotals!A91</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C91" s="13">
         <f>RunningTotals!C91-RunningTotals!B91</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D91" s="13">
         <f>RunningTotals!D91-RunningTotals!C91</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E91" s="13">
         <f>RunningTotals!E91-RunningTotals!D91</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F91" s="13">
         <f>RunningTotals!F91-RunningTotals!E91</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G91" s="13">
         <f>RunningTotals!G91-RunningTotals!F91</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" s="13">
         <f>RunningTotals!H91-RunningTotals!G91</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I91" s="13">
         <f>RunningTotals!I91-RunningTotals!H91</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J91" s="13">
         <f>RunningTotals!J91-RunningTotals!I91</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K91" s="13">
         <f>RunningTotals!K91-RunningTotals!J91</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L91" s="13">
         <f>RunningTotals!L91-RunningTotals!K91</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" s="14">
         <f>RunningTotals!M91-RunningTotals!L91</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="13">
         <f>RunningTotals!B92-RunningTotals!A92</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C92" s="13">
         <f>RunningTotals!C92-RunningTotals!B92</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D92" s="13">
         <f>RunningTotals!D92-RunningTotals!C92</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E92" s="13">
         <f>RunningTotals!E92-RunningTotals!D92</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F92" s="13">
         <f>RunningTotals!F92-RunningTotals!E92</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="13">
         <f>RunningTotals!G92-RunningTotals!F92</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H92" s="13">
         <f>RunningTotals!H92-RunningTotals!G92</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I92" s="13">
         <f>RunningTotals!I92-RunningTotals!H92</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J92" s="13">
         <f>RunningTotals!J92-RunningTotals!I92</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K92" s="13">
         <f>RunningTotals!K92-RunningTotals!J92</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L92" s="13">
         <f>RunningTotals!L92-RunningTotals!K92</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M92" s="14">
         <f>RunningTotals!M92-RunningTotals!L92</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="13">
         <f>RunningTotals!B93-RunningTotals!A93</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C93" s="13">
         <f>RunningTotals!C93-RunningTotals!B93</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D93" s="13">
         <f>RunningTotals!D93-RunningTotals!C93</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E93" s="13">
         <f>RunningTotals!E93-RunningTotals!D93</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F93" s="13">
         <f>RunningTotals!F93-RunningTotals!E93</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G93" s="13">
         <f>RunningTotals!G93-RunningTotals!F93</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" s="13">
         <f>RunningTotals!H93-RunningTotals!G93</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93" s="13">
         <f>RunningTotals!I93-RunningTotals!H93</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J93" s="13">
         <f>RunningTotals!J93-RunningTotals!I93</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K93" s="13">
         <f>RunningTotals!K93-RunningTotals!J93</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L93" s="13">
         <f>RunningTotals!L93-RunningTotals!K93</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M93" s="14">
         <f>RunningTotals!M93-RunningTotals!L93</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="13">
         <f>RunningTotals!B94-RunningTotals!A94</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C94" s="13">
         <f>RunningTotals!C94-RunningTotals!B94</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D94" s="13">
         <f>RunningTotals!D94-RunningTotals!C94</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E94" s="13">
         <f>RunningTotals!E94-RunningTotals!D94</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F94" s="13">
         <f>RunningTotals!F94-RunningTotals!E94</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G94" s="13">
         <f>RunningTotals!G94-RunningTotals!F94</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H94" s="13">
         <f>RunningTotals!H94-RunningTotals!G94</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I94" s="13">
         <f>RunningTotals!I94-RunningTotals!H94</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J94" s="13">
         <f>RunningTotals!J94-RunningTotals!I94</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94" s="13">
         <f>RunningTotals!K94-RunningTotals!J94</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L94" s="13">
         <f>RunningTotals!L94-RunningTotals!K94</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M94" s="14">
         <f>RunningTotals!M94-RunningTotals!L94</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="13">
         <f>RunningTotals!B95-RunningTotals!A95</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C95" s="13">
         <f>RunningTotals!C95-RunningTotals!B95</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D95" s="13">
         <f>RunningTotals!D95-RunningTotals!C95</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E95" s="13">
         <f>RunningTotals!E95-RunningTotals!D95</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F95" s="13">
         <f>RunningTotals!F95-RunningTotals!E95</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G95" s="13">
         <f>RunningTotals!G95-RunningTotals!F95</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H95" s="13">
         <f>RunningTotals!H95-RunningTotals!G95</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I95" s="13">
         <f>RunningTotals!I95-RunningTotals!H95</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J95" s="13">
         <f>RunningTotals!J95-RunningTotals!I95</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="13">
         <f>RunningTotals!K95-RunningTotals!J95</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L95" s="13">
         <f>RunningTotals!L95-RunningTotals!K95</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M95" s="14">
         <f>RunningTotals!M95-RunningTotals!L95</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -8855,12 +9670,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1A60FD-2757-4A7B-854E-D9F9DB872D7A}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="119" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView topLeftCell="A83" zoomScale="99" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12761,853 +13576,853 @@
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="13" t="e">
+      <c r="B79" s="13">
         <f>VLOOKUP(Points!B79, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C79" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="C79" s="13">
         <f>VLOOKUP(Points!C79, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D79" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="D79" s="13">
         <f>VLOOKUP(Points!D79, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E79" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="E79" s="13">
         <f>VLOOKUP(Points!E79, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F79" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="F79" s="13">
         <f>VLOOKUP(Points!F79, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G79" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="G79" s="13">
         <f>VLOOKUP(Points!G79, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H79" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="H79" s="13">
         <f>VLOOKUP(Points!H79, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I79" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="I79" s="13">
         <f>VLOOKUP(Points!I79, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J79" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="J79" s="13">
         <f>VLOOKUP(Points!J79, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K79" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="K79" s="13">
         <f>VLOOKUP(Points!K79, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L79" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="L79" s="13">
         <f>VLOOKUP(Points!L79, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M79" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="M79" s="13">
         <f>VLOOKUP(Points!M79, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="13" t="e">
+      <c r="B80" s="13">
         <f>VLOOKUP(Points!B80, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C80" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="C80" s="13">
         <f>VLOOKUP(Points!C80, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D80" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="D80" s="13">
         <f>VLOOKUP(Points!D80, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E80" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="E80" s="13">
         <f>VLOOKUP(Points!E80, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F80" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="F80" s="13">
         <f>VLOOKUP(Points!F80, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G80" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="G80" s="13">
         <f>VLOOKUP(Points!G80, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H80" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="H80" s="13">
         <f>VLOOKUP(Points!H80, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I80" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="I80" s="13">
         <f>VLOOKUP(Points!I80, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J80" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="J80" s="13">
         <f>VLOOKUP(Points!J80, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K80" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="K80" s="13">
         <f>VLOOKUP(Points!K80, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L80" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="L80" s="13">
         <f>VLOOKUP(Points!L80, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M80" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="M80" s="13">
         <f>VLOOKUP(Points!M80, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="13" t="e">
+      <c r="B81" s="13">
         <f>VLOOKUP(Points!B81, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C81" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="C81" s="13">
         <f>VLOOKUP(Points!C81, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D81" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="D81" s="13">
         <f>VLOOKUP(Points!D81, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E81" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="E81" s="13">
         <f>VLOOKUP(Points!E81, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F81" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="F81" s="13">
         <f>VLOOKUP(Points!F81, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G81" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="G81" s="13">
         <f>VLOOKUP(Points!G81, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H81" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="H81" s="13">
         <f>VLOOKUP(Points!H81, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I81" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="I81" s="13">
         <f>VLOOKUP(Points!I81, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J81" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="J81" s="13">
         <f>VLOOKUP(Points!J81, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K81" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="K81" s="13">
         <f>VLOOKUP(Points!K81, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L81" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="L81" s="13">
         <f>VLOOKUP(Points!L81, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M81" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="M81" s="13">
         <f>VLOOKUP(Points!M81, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="13" t="e">
+      <c r="B82" s="13">
         <f>VLOOKUP(Points!B82, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C82" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="C82" s="13">
         <f>VLOOKUP(Points!C82, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D82" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="D82" s="13">
         <f>VLOOKUP(Points!D82, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E82" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="E82" s="13">
         <f>VLOOKUP(Points!E82, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F82" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="F82" s="13">
         <f>VLOOKUP(Points!F82, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G82" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="G82" s="13">
         <f>VLOOKUP(Points!G82, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H82" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="H82" s="13">
         <f>VLOOKUP(Points!H82, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I82" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="I82" s="13">
         <f>VLOOKUP(Points!I82, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J82" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="J82" s="13">
         <f>VLOOKUP(Points!J82, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K82" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="K82" s="13">
         <f>VLOOKUP(Points!K82, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L82" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="L82" s="13">
         <f>VLOOKUP(Points!L82, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M82" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="M82" s="13">
         <f>VLOOKUP(Points!M82, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="13" t="e">
+      <c r="B83" s="13">
         <f>VLOOKUP(Points!B83, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C83" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="C83" s="13">
         <f>VLOOKUP(Points!C83, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D83" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="D83" s="13">
         <f>VLOOKUP(Points!D83, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E83" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="E83" s="13">
         <f>VLOOKUP(Points!E83, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F83" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="F83" s="13">
         <f>VLOOKUP(Points!F83, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G83" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="G83" s="13">
         <f>VLOOKUP(Points!G83, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H83" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="H83" s="13">
         <f>VLOOKUP(Points!H83, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I83" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="I83" s="13">
         <f>VLOOKUP(Points!I83, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J83" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="J83" s="13">
         <f>VLOOKUP(Points!J83, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K83" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="K83" s="13">
         <f>VLOOKUP(Points!K83, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L83" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="L83" s="13">
         <f>VLOOKUP(Points!L83, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M83" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="M83" s="13">
         <f>VLOOKUP(Points!M83, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="13" t="e">
+      <c r="B84" s="13">
         <f>VLOOKUP(Points!B84, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C84" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="C84" s="13">
         <f>VLOOKUP(Points!C84, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D84" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="D84" s="13">
         <f>VLOOKUP(Points!D84, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E84" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="E84" s="13">
         <f>VLOOKUP(Points!E84, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F84" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="F84" s="13">
         <f>VLOOKUP(Points!F84, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G84" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="G84" s="13">
         <f>VLOOKUP(Points!G84, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H84" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="H84" s="13">
         <f>VLOOKUP(Points!H84, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I84" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="I84" s="13">
         <f>VLOOKUP(Points!I84, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J84" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="J84" s="13">
         <f>VLOOKUP(Points!J84, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K84" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="K84" s="13">
         <f>VLOOKUP(Points!K84, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L84" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="L84" s="13">
         <f>VLOOKUP(Points!L84, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M84" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="M84" s="13">
         <f>VLOOKUP(Points!M84, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="13" t="e">
+      <c r="B85" s="13">
         <f>VLOOKUP(Points!B85, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C85" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="C85" s="13">
         <f>VLOOKUP(Points!C85, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D85" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="D85" s="13">
         <f>VLOOKUP(Points!D85, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E85" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="E85" s="13">
         <f>VLOOKUP(Points!E85, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F85" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="F85" s="13">
         <f>VLOOKUP(Points!F85, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G85" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="G85" s="13">
         <f>VLOOKUP(Points!G85, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H85" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="H85" s="13">
         <f>VLOOKUP(Points!H85, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I85" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="I85" s="13">
         <f>VLOOKUP(Points!I85, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J85" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="J85" s="13">
         <f>VLOOKUP(Points!J85, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K85" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="K85" s="13">
         <f>VLOOKUP(Points!K85, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L85" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="L85" s="13">
         <f>VLOOKUP(Points!L85, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M85" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="M85" s="13">
         <f>VLOOKUP(Points!M85, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="13" t="e">
+      <c r="B86" s="13">
         <f>VLOOKUP(Points!B86, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C86" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="C86" s="13">
         <f>VLOOKUP(Points!C86, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D86" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="D86" s="13">
         <f>VLOOKUP(Points!D86, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E86" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="E86" s="13">
         <f>VLOOKUP(Points!E86, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F86" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="F86" s="13">
         <f>VLOOKUP(Points!F86, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G86" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="G86" s="13">
         <f>VLOOKUP(Points!G86, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H86" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="H86" s="13">
         <f>VLOOKUP(Points!H86, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I86" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="I86" s="13">
         <f>VLOOKUP(Points!I86, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J86" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="J86" s="13">
         <f>VLOOKUP(Points!J86, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K86" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="K86" s="13">
         <f>VLOOKUP(Points!K86, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L86" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="L86" s="13">
         <f>VLOOKUP(Points!L86, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M86" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="M86" s="13">
         <f>VLOOKUP(Points!M86, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="13" t="e">
+      <c r="B87" s="13">
         <f>VLOOKUP(Points!B87, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C87" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="C87" s="13">
         <f>VLOOKUP(Points!C87, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D87" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="D87" s="13">
         <f>VLOOKUP(Points!D87, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E87" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="E87" s="13">
         <f>VLOOKUP(Points!E87, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F87" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="F87" s="13">
         <f>VLOOKUP(Points!F87, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G87" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="G87" s="13">
         <f>VLOOKUP(Points!G87, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H87" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="H87" s="13">
         <f>VLOOKUP(Points!H87, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I87" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="I87" s="13">
         <f>VLOOKUP(Points!I87, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J87" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="J87" s="13">
         <f>VLOOKUP(Points!J87, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K87" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="K87" s="13">
         <f>VLOOKUP(Points!K87, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L87" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="L87" s="13">
         <f>VLOOKUP(Points!L87, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M87" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="M87" s="13">
         <f>VLOOKUP(Points!M87, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="13" t="e">
+      <c r="B88" s="13">
         <f>VLOOKUP(Points!B88, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C88" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="C88" s="13">
         <f>VLOOKUP(Points!C88, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D88" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="D88" s="13">
         <f>VLOOKUP(Points!D88, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E88" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="E88" s="13">
         <f>VLOOKUP(Points!E88, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F88" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="F88" s="13">
         <f>VLOOKUP(Points!F88, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G88" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="G88" s="13">
         <f>VLOOKUP(Points!G88, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H88" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="H88" s="13">
         <f>VLOOKUP(Points!H88, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I88" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="I88" s="13">
         <f>VLOOKUP(Points!I88, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J88" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="J88" s="13">
         <f>VLOOKUP(Points!J88, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K88" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="K88" s="13">
         <f>VLOOKUP(Points!K88, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L88" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="L88" s="13">
         <f>VLOOKUP(Points!L88, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M88" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="M88" s="13">
         <f>VLOOKUP(Points!M88, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="13" t="e">
+      <c r="B89" s="13">
         <f>VLOOKUP(Points!B89, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C89" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="C89" s="13">
         <f>VLOOKUP(Points!C89, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D89" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="D89" s="13">
         <f>VLOOKUP(Points!D89, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E89" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="E89" s="13">
         <f>VLOOKUP(Points!E89, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F89" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="F89" s="13">
         <f>VLOOKUP(Points!F89, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G89" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="G89" s="13">
         <f>VLOOKUP(Points!G89, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H89" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="H89" s="13">
         <f>VLOOKUP(Points!H89, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I89" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="I89" s="13">
         <f>VLOOKUP(Points!I89, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J89" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="J89" s="13">
         <f>VLOOKUP(Points!J89, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K89" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="K89" s="13">
         <f>VLOOKUP(Points!K89, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L89" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="L89" s="13">
         <f>VLOOKUP(Points!L89, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M89" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="M89" s="13">
         <f>VLOOKUP(Points!M89, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="13" t="e">
+      <c r="B90" s="13">
         <f>VLOOKUP(Points!B90, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C90" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="C90" s="13">
         <f>VLOOKUP(Points!C90, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D90" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="D90" s="13">
         <f>VLOOKUP(Points!D90, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E90" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="E90" s="13">
         <f>VLOOKUP(Points!E90, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F90" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="F90" s="13">
         <f>VLOOKUP(Points!F90, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G90" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="G90" s="13">
         <f>VLOOKUP(Points!G90, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H90" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="H90" s="13">
         <f>VLOOKUP(Points!H90, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I90" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="I90" s="13">
         <f>VLOOKUP(Points!I90, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J90" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="J90" s="13">
         <f>VLOOKUP(Points!J90, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K90" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="K90" s="13">
         <f>VLOOKUP(Points!K90, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L90" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="L90" s="13">
         <f>VLOOKUP(Points!L90, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M90" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="M90" s="13">
         <f>VLOOKUP(Points!M90, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="13" t="e">
+      <c r="B91" s="13">
         <f>VLOOKUP(Points!B91, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C91" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="C91" s="13">
         <f>VLOOKUP(Points!C91, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D91" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="D91" s="13">
         <f>VLOOKUP(Points!D91, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E91" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="E91" s="13">
         <f>VLOOKUP(Points!E91, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F91" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="F91" s="13">
         <f>VLOOKUP(Points!F91, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G91" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="G91" s="13">
         <f>VLOOKUP(Points!G91, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H91" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="H91" s="13">
         <f>VLOOKUP(Points!H91, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I91" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="I91" s="13">
         <f>VLOOKUP(Points!I91, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J91" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="J91" s="13">
         <f>VLOOKUP(Points!J91, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K91" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="K91" s="13">
         <f>VLOOKUP(Points!K91, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L91" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="L91" s="13">
         <f>VLOOKUP(Points!L91, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M91" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="M91" s="13">
         <f>VLOOKUP(Points!M91, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="13" t="e">
+      <c r="B92" s="13">
         <f>VLOOKUP(Points!B92, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C92" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="C92" s="13">
         <f>VLOOKUP(Points!C92, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D92" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="D92" s="13">
         <f>VLOOKUP(Points!D92, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E92" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="E92" s="13">
         <f>VLOOKUP(Points!E92, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F92" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="F92" s="13">
         <f>VLOOKUP(Points!F92, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G92" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="G92" s="13">
         <f>VLOOKUP(Points!G92, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H92" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="H92" s="13">
         <f>VLOOKUP(Points!H92, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I92" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="I92" s="13">
         <f>VLOOKUP(Points!I92, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J92" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="J92" s="13">
         <f>VLOOKUP(Points!J92, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K92" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="K92" s="13">
         <f>VLOOKUP(Points!K92, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L92" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="L92" s="13">
         <f>VLOOKUP(Points!L92, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M92" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="M92" s="13">
         <f>VLOOKUP(Points!M92, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="13" t="e">
+      <c r="B93" s="13">
         <f>VLOOKUP(Points!B93, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C93" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="C93" s="13">
         <f>VLOOKUP(Points!C93, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D93" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="D93" s="13">
         <f>VLOOKUP(Points!D93, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E93" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="E93" s="13">
         <f>VLOOKUP(Points!E93, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F93" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="F93" s="13">
         <f>VLOOKUP(Points!F93, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G93" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="G93" s="13">
         <f>VLOOKUP(Points!G93, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H93" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="H93" s="13">
         <f>VLOOKUP(Points!H93, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I93" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="I93" s="13">
         <f>VLOOKUP(Points!I93, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J93" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="J93" s="13">
         <f>VLOOKUP(Points!J93, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K93" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="K93" s="13">
         <f>VLOOKUP(Points!K93, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L93" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="L93" s="13">
         <f>VLOOKUP(Points!L93, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M93" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="M93" s="13">
         <f>VLOOKUP(Points!M93, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="13" t="e">
+      <c r="B94" s="13">
         <f>VLOOKUP(Points!B94, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C94" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="C94" s="13">
         <f>VLOOKUP(Points!C94, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D94" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="D94" s="13">
         <f>VLOOKUP(Points!D94, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E94" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="E94" s="13">
         <f>VLOOKUP(Points!E94, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F94" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="F94" s="13">
         <f>VLOOKUP(Points!F94, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G94" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="G94" s="13">
         <f>VLOOKUP(Points!G94, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H94" s="13" t="e">
+        <v>7</v>
+      </c>
+      <c r="H94" s="13">
         <f>VLOOKUP(Points!H94, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I94" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="I94" s="13">
         <f>VLOOKUP(Points!I94, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J94" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="J94" s="13">
         <f>VLOOKUP(Points!J94, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K94" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="K94" s="13">
         <f>VLOOKUP(Points!K94, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L94" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="L94" s="13">
         <f>VLOOKUP(Points!L94, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M94" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="M94" s="13">
         <f>VLOOKUP(Points!M94, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="13" t="e">
+      <c r="B95" s="13">
         <f>VLOOKUP(Points!B95, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C95" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="C95" s="13">
         <f>VLOOKUP(Points!C95, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D95" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="D95" s="13">
         <f>VLOOKUP(Points!D95, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E95" s="13" t="e">
+        <v>11</v>
+      </c>
+      <c r="E95" s="13">
         <f>VLOOKUP(Points!E95, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F95" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="F95" s="13">
         <f>VLOOKUP(Points!F95, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G95" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="G95" s="13">
         <f>VLOOKUP(Points!G95, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H95" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="H95" s="13">
         <f>VLOOKUP(Points!H95, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I95" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="I95" s="13">
         <f>VLOOKUP(Points!I95, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J95" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="J95" s="13">
         <f>VLOOKUP(Points!J95, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K95" s="13" t="e">
+        <v>12</v>
+      </c>
+      <c r="K95" s="13">
         <f>VLOOKUP(Points!K95, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L95" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="L95" s="13">
         <f>VLOOKUP(Points!L95, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M95" s="13" t="e">
+        <v>2</v>
+      </c>
+      <c r="M95" s="13">
         <f>VLOOKUP(Points!M95, 'Pos-Pts'!$E$3:$F$14, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -13865,7 +14680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD13A18B-EA7A-4289-AD27-8A5570FE84D4}">
   <dimension ref="B2:F14"/>
   <sheetViews>
@@ -14065,12 +14880,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC1ED6A-776F-419D-ADB3-270D9D2AA9CB}">
-  <dimension ref="B2:N11"/>
+  <dimension ref="B2:O15"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14078,16 +14893,16 @@
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="28">
         <f>AVERAGEIF(Placements!B2:M100, "&gt;0")</f>
-        <v>6.2056277056277054</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6.2260638297872344</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -14096,7 +14911,7 @@
         <v>85.736842105263165</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -14137,166 +14952,166 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="24">
         <f>AVERAGEIF(Placements!B2:B100,"&gt;0")</f>
-        <v>5.337662337662338</v>
+        <v>5.6914893617021276</v>
       </c>
       <c r="D6" s="24">
         <f>AVERAGEIF(Placements!C2:C100,"&gt;0")</f>
-        <v>6.4155844155844157</v>
+        <v>6.3085106382978724</v>
       </c>
       <c r="E6" s="24">
         <f>AVERAGEIF(Placements!D2:D100,"&gt;0")</f>
-        <v>6.4285714285714288</v>
+        <v>6.6276595744680851</v>
       </c>
       <c r="F6" s="24">
         <f>AVERAGEIF(Placements!E2:E100,"&gt;0")</f>
-        <v>6.2987012987012987</v>
+        <v>6.0957446808510642</v>
       </c>
       <c r="G6" s="24">
         <f>AVERAGEIF(Placements!F2:F100,"&gt;0")</f>
-        <v>5.7922077922077921</v>
+        <v>5.7446808510638299</v>
       </c>
       <c r="H6" s="24">
         <f>AVERAGEIF(Placements!G2:G100,"&gt;0")</f>
-        <v>6.4935064935064934</v>
+        <v>6.3936170212765955</v>
       </c>
       <c r="I6" s="24">
         <f>AVERAGEIF(Placements!H2:H100,"&gt;0")</f>
-        <v>6.1688311688311686</v>
+        <v>6.042553191489362</v>
       </c>
       <c r="J6" s="24">
         <f>AVERAGEIF(Placements!I2:I100,"&gt;0")</f>
-        <v>6.0389610389610393</v>
+        <v>6.0957446808510642</v>
       </c>
       <c r="K6" s="24">
         <f>AVERAGEIF(Placements!J2:J100,"&gt;0")</f>
-        <v>6.0779220779220777</v>
+        <v>6.1382978723404253</v>
       </c>
       <c r="L6" s="24">
         <f>AVERAGEIF(Placements!K2:K100,"&gt;0")</f>
-        <v>6.5194805194805197</v>
+        <v>6.6276595744680851</v>
       </c>
       <c r="M6" s="24">
         <f>AVERAGEIF(Placements!L2:L100,"&gt;0")</f>
-        <v>6.5844155844155843</v>
+        <v>6.5</v>
       </c>
       <c r="N6" s="25">
         <f>AVERAGEIF(Placements!M2:M100,"&gt;0")</f>
-        <v>6.3116883116883118</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6.4468085106382977</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="24">
         <f>AVERAGEIF(Points!B2:B105, "&gt;0")</f>
-        <v>8.1948051948051948</v>
+        <v>7.7446808510638299</v>
       </c>
       <c r="D7" s="24">
         <f>AVERAGEIF(Points!C2:C105, "&gt;0")</f>
-        <v>6.8441558441558445</v>
+        <v>6.9468085106382977</v>
       </c>
       <c r="E7" s="24">
         <f>AVERAGEIF(Points!D2:D105, "&gt;0")</f>
-        <v>7.0389610389610393</v>
+        <v>6.7659574468085104</v>
       </c>
       <c r="F7" s="24">
         <f>AVERAGEIF(Points!E2:E105, "&gt;0")</f>
-        <v>7.1818181818181817</v>
+        <v>7.3936170212765955</v>
       </c>
       <c r="G7" s="24">
         <f>AVERAGEIF(Points!F2:F105, "&gt;0")</f>
-        <v>7.5714285714285712</v>
+        <v>7.6382978723404253</v>
       </c>
       <c r="H7" s="24">
         <f>AVERAGEIF(Points!G2:G105, "&gt;0")</f>
-        <v>6.779220779220779</v>
+        <v>6.8936170212765955</v>
       </c>
       <c r="I7" s="24">
         <f>AVERAGEIF(Points!H2:H105, "&gt;0")</f>
-        <v>7.116883116883117</v>
+        <v>7.3085106382978724</v>
       </c>
       <c r="J7" s="24">
         <f>AVERAGEIF(Points!I2:I105, "&gt;0")</f>
-        <v>7.2597402597402594</v>
+        <v>7.1914893617021276</v>
       </c>
       <c r="K7" s="24">
         <f>AVERAGEIF(Points!J2:J105, "&gt;0")</f>
-        <v>7.2857142857142856</v>
+        <v>7.2340425531914896</v>
       </c>
       <c r="L7" s="24">
         <f>AVERAGEIF(Points!K2:K105, "&gt;0")</f>
-        <v>6.7532467532467528</v>
+        <v>6.6063829787234045</v>
       </c>
       <c r="M7" s="24">
         <f>AVERAGEIF(Points!L2:L105, "&gt;0")</f>
-        <v>6.7012987012987013</v>
+        <v>6.7872340425531918</v>
       </c>
       <c r="N7" s="25">
         <f>AVERAGEIF(Points!M2:M105, "&gt;0")</f>
-        <v>7.0259740259740262</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6.8617021276595747</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="26">
         <f>AVERAGEIF(RunningTotals!B2:B100, "&gt;0")</f>
-        <v>8.1948051948051948</v>
+        <v>7.7446808510638299</v>
       </c>
       <c r="D8" s="26">
         <f>AVERAGEIF(RunningTotals!C2:C100, "&gt;0")</f>
-        <v>15.038961038961039</v>
+        <v>14.691489361702128</v>
       </c>
       <c r="E8" s="26">
         <f>AVERAGEIF(RunningTotals!D2:D100, "&gt;0")</f>
-        <v>22.077922077922079</v>
+        <v>21.457446808510639</v>
       </c>
       <c r="F8" s="26">
         <f>AVERAGEIF(RunningTotals!E2:E100, "&gt;0")</f>
-        <v>29.259740259740258</v>
+        <v>28.851063829787233</v>
       </c>
       <c r="G8" s="26">
         <f>AVERAGEIF(RunningTotals!F2:F100, "&gt;0")</f>
-        <v>36.831168831168831</v>
+        <v>36.48936170212766</v>
       </c>
       <c r="H8" s="26">
         <f>AVERAGEIF(RunningTotals!G2:G100, "&gt;0")</f>
-        <v>43.493506493506494</v>
+        <v>43.287234042553195</v>
       </c>
       <c r="I8" s="26">
         <f>AVERAGEIF(RunningTotals!H2:H100, "&gt;0")</f>
-        <v>50.636363636363633</v>
+        <v>50.617021276595743</v>
       </c>
       <c r="J8" s="26">
         <f>AVERAGEIF(RunningTotals!I2:I100, "&gt;0")</f>
-        <v>57.857142857142854</v>
+        <v>57.776595744680854</v>
       </c>
       <c r="K8" s="26">
         <f>AVERAGEIF(RunningTotals!J2:J100, "&gt;0")</f>
-        <v>65.116883116883116</v>
+        <v>64.989361702127653</v>
       </c>
       <c r="L8" s="26">
         <f>AVERAGEIF(RunningTotals!K2:K100, "&gt;0")</f>
-        <v>71.935064935064929</v>
+        <v>71.648936170212764</v>
       </c>
       <c r="M8" s="26">
         <f>AVERAGEIF(RunningTotals!L2:L100, "&gt;0")</f>
-        <v>78.63636363636364</v>
+        <v>78.436170212765958</v>
       </c>
       <c r="N8" s="27">
         <f>AVERAGEIF(RunningTotals!M2:M100, "&gt;0")</f>
-        <v>85.662337662337663</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+        <v>85.297872340425528</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -14337,56 +15152,205 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, C10)</f>
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, D10)</f>
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, E10)</f>
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, F10)</f>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, G10)</f>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, H10)</f>
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="I11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, I10)</f>
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="J11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, J10)</f>
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="K11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, K10)</f>
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="L11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, L10)</f>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="M11" s="23">
         <f>COUNTIF(Placements!$B$2:$M$100, M10)</f>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N11" s="5">
         <f>COUNTIF(Placements!$B$2:$M$100, N10)</f>
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>6</v>
+      </c>
+      <c r="I13" s="8">
+        <v>7</v>
+      </c>
+      <c r="J13" s="8">
+        <v>8</v>
+      </c>
+      <c r="K13" s="8">
+        <v>9</v>
+      </c>
+      <c r="L13" s="8">
+        <v>10</v>
+      </c>
+      <c r="M13" s="8">
+        <v>11</v>
+      </c>
+      <c r="N13" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="24">
+        <f>_xlfn.STDEV.P(RunningTotals!B2:B100)</f>
+        <v>3.9651035515784074</v>
+      </c>
+      <c r="D14" s="24">
+        <f>_xlfn.STDEV.P(RunningTotals!C2:C100)</f>
+        <v>5.0865416829551311</v>
+      </c>
+      <c r="E14" s="24">
+        <f>_xlfn.STDEV.P(RunningTotals!D2:D100)</f>
+        <v>6.7393176206387189</v>
+      </c>
+      <c r="F14" s="24">
+        <f>_xlfn.STDEV.P(RunningTotals!E2:E100)</f>
+        <v>8.4714256214497663</v>
+      </c>
+      <c r="G14" s="24">
+        <f>_xlfn.STDEV.P(RunningTotals!F2:F100)</f>
+        <v>9.0091498180260974</v>
+      </c>
+      <c r="H14" s="24">
+        <f>_xlfn.STDEV.P(RunningTotals!G2:G100)</f>
+        <v>9.2983896345704888</v>
+      </c>
+      <c r="I14" s="24">
+        <f>_xlfn.STDEV.P(RunningTotals!H2:H100)</f>
+        <v>10.68216487638886</v>
+      </c>
+      <c r="J14" s="24">
+        <f>_xlfn.STDEV.P(RunningTotals!I2:I100)</f>
+        <v>10.504461316982509</v>
+      </c>
+      <c r="K14" s="24">
+        <f>_xlfn.STDEV.P(RunningTotals!J2:J100)</f>
+        <v>11.545004151977233</v>
+      </c>
+      <c r="L14" s="24">
+        <f>_xlfn.STDEV.P(RunningTotals!K2:K100)</f>
+        <v>12.911900701265093</v>
+      </c>
+      <c r="M14" s="24">
+        <f>_xlfn.STDEV.P(RunningTotals!L2:L100)</f>
+        <v>13.905883119483269</v>
+      </c>
+      <c r="N14" s="24">
+        <f>_xlfn.STDEV.P(RunningTotals!M2:M100)</f>
+        <v>15.13754651923491</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="26">
+        <f>AVERAGE(RunningTotals!B2:B100)</f>
+        <v>7.7446808510638299</v>
+      </c>
+      <c r="D15" s="26">
+        <f>AVERAGE(RunningTotals!C2:C100)</f>
+        <v>14.691489361702128</v>
+      </c>
+      <c r="E15" s="26">
+        <f>AVERAGE(RunningTotals!D2:D100)</f>
+        <v>21.457446808510639</v>
+      </c>
+      <c r="F15" s="26">
+        <f>AVERAGE(RunningTotals!E2:E100)</f>
+        <v>28.851063829787233</v>
+      </c>
+      <c r="G15" s="26">
+        <f>AVERAGE(RunningTotals!F2:F100)</f>
+        <v>36.48936170212766</v>
+      </c>
+      <c r="H15" s="26">
+        <f>AVERAGE(RunningTotals!G2:G100)</f>
+        <v>43.287234042553195</v>
+      </c>
+      <c r="I15" s="26">
+        <f>AVERAGE(RunningTotals!H2:H100)</f>
+        <v>50.617021276595743</v>
+      </c>
+      <c r="J15" s="26">
+        <f>AVERAGE(RunningTotals!I2:I100)</f>
+        <v>57.776595744680854</v>
+      </c>
+      <c r="K15" s="26">
+        <f>AVERAGE(RunningTotals!J2:J100)</f>
+        <v>64.989361702127653</v>
+      </c>
+      <c r="L15" s="26">
+        <f>AVERAGE(RunningTotals!K2:K100)</f>
+        <v>71.648936170212764</v>
+      </c>
+      <c r="M15" s="26">
+        <f>AVERAGE(RunningTotals!L2:L100)</f>
+        <v>78.436170212765958</v>
+      </c>
+      <c r="N15" s="26">
+        <f>AVERAGE(RunningTotals!M2:M100)</f>
+        <v>85.297872340425528</v>
+      </c>
+      <c r="O15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
